--- a/Documentos/MoS_Calculos.xlsx
+++ b/Documentos/MoS_Calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/jm_vergara_alumnos_upm_es/Documents/MUSE/2 SEMESTRE/Estructuras/Practica 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. EUE\Micro-Satellite-Design-Analysis\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="8_{A4640C8E-B503-4CCA-88FE-E0549B281524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA9188E-762F-4C57-88F4-C437C0AD3EE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61E87E6-9D18-471D-BA2B-18F9D5020696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BA9392F-C683-4373-9077-1D6BAC03E8AC}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5BA9392F-C683-4373-9077-1D6BAC03E8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Random_MoS" sheetId="5" r:id="rId1"/>
@@ -854,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -917,23 +917,76 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,85 +1003,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2254,8 +2256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12734925" y="3350895"/>
-          <a:ext cx="4299048" cy="2243489"/>
+          <a:off x="12708255" y="3322320"/>
+          <a:ext cx="4287618" cy="2222534"/>
           <a:chOff x="9001125" y="3888105"/>
           <a:chExt cx="4295238" cy="2214914"/>
         </a:xfrm>
@@ -2362,7 +2364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2660,11 +2662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2634BF-4194-4A8E-9F40-D15CA58852EB}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
@@ -3275,22 +3277,22 @@
       <selection activeCell="J14" sqref="J14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="F1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -4295,13 +4297,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193B3275-13AE-426A-BEAE-42C8E90F0CB9}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="9" max="9" width="3.21875" customWidth="1"/>
@@ -4561,12 +4563,12 @@
         <v>9.5165791960748827</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -4581,7 +4583,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>13700000</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>20.033158392149765</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -4664,7 +4666,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>27400000</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>9.5165791960748827</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -4746,8 +4748,9 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N28" s="75"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>52</v>
       </c>
@@ -4779,8 +4782,9 @@
       <c r="K29" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N29" s="75"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>27400000</v>
       </c>
@@ -4814,13 +4818,21 @@
         <f>H30/(A30*B30*C30*D30*F30)-1</f>
         <v>9.5165791960748827</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N30" s="75"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="75"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="75"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N33" s="75"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -4834,8 +4846,9 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N34" s="75"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -4867,8 +4880,9 @@
       <c r="K35" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N35" s="75"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>9530000</v>
       </c>
@@ -4902,8 +4916,15 @@
         <f>H36/(A36*B36*C36*D36*F36)-1</f>
         <v>29.236544593121902</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N36" s="75"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="75"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="75"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -4917,8 +4938,9 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N39" s="75"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -4950,8 +4972,9 @@
       <c r="K40" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N40" s="75"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>21700000</v>
       </c>
@@ -4985,8 +5008,9 @@
         <f>H41/(A41*B41*C41*D41*F41)-1</f>
         <v>12.278998616242015</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N41" s="75"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -5001,7 +5025,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
@@ -5034,7 +5058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>32900000</v>
       </c>
@@ -5223,49 +5247,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1B9186-359A-4FCC-A1EF-B5D2FDF1EC8F}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AM53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="40"/>
-      <c r="P1" s="37" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54"/>
+      <c r="P1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="40"/>
-      <c r="AE1" s="37" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="54"/>
+      <c r="AE1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="39" t="s">
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="40"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="54"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6251,42 +6275,42 @@
     </row>
     <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="40"/>
-      <c r="P19" s="37" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="P19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39" t="s">
+      <c r="Q19" s="53"/>
+      <c r="R19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="40"/>
-      <c r="AE19" s="37" t="s">
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="54"/>
+      <c r="AE19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="39" t="s">
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="40"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="54"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -7164,42 +7188,42 @@
     </row>
     <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39" t="s">
+      <c r="B37" s="53"/>
+      <c r="C37" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="40"/>
-      <c r="P37" s="37" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
+      <c r="P37" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="39" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="40"/>
-      <c r="AE37" s="37" t="s">
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="54"/>
+      <c r="AE37" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="39" t="s">
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="40"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="54"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -8182,24 +8206,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AL19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG37:AL37"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="P37:Q37"/>
     <mergeCell ref="R37:W37"/>
     <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AL19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:W19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8210,22 +8234,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7239B-DE42-4A2D-96BE-90D202CDFF18}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
       <c r="F1" s="26"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25" t="s">
@@ -8234,20 +8258,20 @@
       <c r="I1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="24" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="44"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -8268,10 +8292,10 @@
       <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="22" t="s">
@@ -8309,38 +8333,38 @@
       <c r="F3" s="20">
         <v>1</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="39">
         <f>ABS('Forces Input '!AG4)*B11</f>
         <v>321.14852000000002</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="40">
         <f>SQRT('Forces Input '!AH4^2+'Forces Input '!AI4^2)*B11</f>
         <v>258.14685441308433</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="41">
         <f xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H3*$D$4) ) ) -1</f>
         <v>0.58201508510694988</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="41">
         <f t="shared" ref="K3:K38" si="0" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H3*$D$5) ) ) -1</f>
         <v>0.83140029130434234</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="41">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H3*$D$5) ) -1</f>
         <v>29.614337975928809</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="41">
         <f xml:space="preserve"> (( ($D$8 - (1-$D$3)*H3)*$D$6) / (I3*$D$5) ) -1</f>
         <v>6.1567542177067498</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="41">
         <f>1/(SQRT(      (((I3*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.58168741258760326</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="67">
         <f>1/(SQRT(      (((I3*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.83070305584967441</v>
       </c>
@@ -8361,36 +8385,36 @@
       <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="58">
+      <c r="G4" s="56"/>
+      <c r="H4" s="40">
         <f>ABS('Forces Input '!AG5)*B11</f>
         <v>321.14731</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="40">
         <f>SQRT('Forces Input '!AH5^2+'Forces Input '!AI5^2)*B11</f>
         <v>258.14894668685838</v>
       </c>
-      <c r="J4" s="13">
-        <f t="shared" ref="J3:J38" si="1" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H4*$D$4) ) ) -1</f>
+      <c r="J4" s="41">
+        <f t="shared" ref="J4:J38" si="1" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H4*$D$4) ) ) -1</f>
         <v>0.58201508841572203</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="41">
         <f t="shared" si="0"/>
         <v>0.83140029666565529</v>
       </c>
-      <c r="L4" s="13">
-        <f t="shared" ref="L3:L38" si="2" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H4*$D$5) ) -1</f>
+      <c r="L4" s="41">
+        <f t="shared" ref="L4:L38" si="2" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H4*$D$5) ) -1</f>
         <v>29.614453322835967</v>
       </c>
-      <c r="M4" s="13">
-        <f t="shared" ref="M3:M38" si="3" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H4)*$D$6) / (I4*$D$5) ) -1</f>
+      <c r="M4" s="41">
+        <f t="shared" ref="M4:M38" si="3" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H4)*$D$6) / (I4*$D$5) ) -1</f>
         <v>6.1566968570210845</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="41">
         <f t="shared" ref="N4:N38" si="4">1/(SQRT(      (((I4*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.58168741058439322</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="67">
         <f t="shared" ref="O4:O38" si="5">1/(SQRT(      (((I4*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.83070304990912214</v>
       </c>
@@ -8411,36 +8435,36 @@
       <c r="F5" s="18">
         <v>3</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="58">
+      <c r="G5" s="56"/>
+      <c r="H5" s="40">
         <f>ABS('Forces Input '!AG6)*B11</f>
         <v>347.14460000000003</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="40">
         <f>SQRT('Forces Input '!AH6^2+'Forces Input '!AI6^2)*B11</f>
         <v>558.58823571015387</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="41">
         <f t="shared" si="1"/>
         <v>0.5819440014350552</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="41">
         <f t="shared" si="0"/>
         <v>0.83128511415454298</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="41">
         <f t="shared" si="2"/>
         <v>27.321769463645211</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="41">
         <f t="shared" si="3"/>
         <v>2.3010379866435673</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="41">
         <f t="shared" si="4"/>
         <v>0.5804117325767173</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="67">
         <f t="shared" si="5"/>
         <v>0.82802798018633617</v>
       </c>
@@ -8461,36 +8485,36 @@
       <c r="F6" s="18">
         <v>4</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="58">
+      <c r="G6" s="56"/>
+      <c r="H6" s="40">
         <f>ABS('Forces Input '!AG7)*B11</f>
         <v>794.97297000000015</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="40">
         <f>SQRT('Forces Input '!AH7^2+'Forces Input '!AI7^2)*B11</f>
         <v>66.285782167417963</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="41">
         <f t="shared" si="1"/>
         <v>0.58072046178884018</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="41">
         <f t="shared" si="0"/>
         <v>0.82930325633904611</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="41">
         <f t="shared" si="2"/>
         <v>11.367400783135217</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="41">
         <f t="shared" si="3"/>
         <v>25.889274193603018</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="41">
         <f t="shared" si="4"/>
         <v>0.58069890388447276</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="67">
         <f t="shared" si="5"/>
         <v>0.82925741834676847</v>
       </c>
@@ -8511,36 +8535,36 @@
       <c r="F7" s="18">
         <v>5</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="58">
+      <c r="G7" s="56"/>
+      <c r="H7" s="40">
         <f>ABS('Forces Input '!AG8)*B11</f>
         <v>347.14009000000004</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="40">
         <f>SQRT('Forces Input '!AH8^2+'Forces Input '!AI8^2)*B11</f>
         <v>558.58547832031957</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="41">
         <f t="shared" si="1"/>
         <v>0.58194401376664384</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="41">
         <f t="shared" si="0"/>
         <v>0.83128513413510485</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="41">
         <f t="shared" si="2"/>
         <v>27.322137416480277</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="41">
         <f t="shared" si="3"/>
         <v>2.3010553914129739</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="41">
         <f t="shared" si="4"/>
         <v>0.58041175997814487</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="67">
         <f t="shared" si="5"/>
         <v>0.82802803213139664</v>
       </c>
@@ -8561,36 +8585,36 @@
       <c r="F8" s="18">
         <v>6</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="58">
+      <c r="G8" s="56"/>
+      <c r="H8" s="40">
         <f>ABS('Forces Input '!AG9)*B11</f>
         <v>794.97275000000002</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="40">
         <f>SQRT('Forces Input '!AH9^2+'Forces Input '!AI9^2)*B11</f>
         <v>66.286825718675672</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="41">
         <f t="shared" si="1"/>
         <v>0.58072046238945085</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="41">
         <f t="shared" si="0"/>
         <v>0.82930325731159926</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="41">
         <f t="shared" si="2"/>
         <v>11.367404205677907</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="41">
         <f t="shared" si="3"/>
         <v>25.88885133278092</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="41">
         <f t="shared" si="4"/>
         <v>0.58069890380628619</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="67">
         <f t="shared" si="5"/>
         <v>0.82925741787601659</v>
       </c>
@@ -8599,83 +8623,83 @@
       <c r="F9" s="18">
         <v>7</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="58">
+      <c r="G9" s="56"/>
+      <c r="H9" s="40">
         <f>ABS('Forces Input '!AG10)*B11</f>
         <v>794.96769000000006</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="40">
         <f>SQRT('Forces Input '!AH10^2+'Forces Input '!AI10^2)*B11</f>
         <v>66.282686398470261</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="41">
         <f t="shared" si="1"/>
         <v>0.58072047620349809</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="41">
         <f t="shared" si="0"/>
         <v>0.82930327968032058</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="41">
         <f t="shared" si="2"/>
         <v>11.36748292468255</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="41">
         <f t="shared" si="3"/>
         <v>25.890541019187413</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="41">
         <f t="shared" si="4"/>
         <v>0.58069892031210602</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="67">
         <f t="shared" si="5"/>
         <v>0.82925744596760431</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="37" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="18">
         <v>8</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="58">
+      <c r="G10" s="56"/>
+      <c r="H10" s="40">
         <f>ABS('Forces Input '!AG11)*B11</f>
         <v>347.14031000000006</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="40">
         <f>SQRT('Forces Input '!AH11^2+'Forces Input '!AI11^2)*B11</f>
         <v>558.58773314105633</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="41">
         <f t="shared" si="1"/>
         <v>0.58194401316510302</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="41">
         <f t="shared" si="0"/>
         <v>0.83128513316044339</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="41">
         <f t="shared" si="2"/>
         <v>27.322119467339682</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="41">
         <f t="shared" si="3"/>
         <v>2.3010420120958281</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="41">
         <f t="shared" si="4"/>
         <v>0.58041174702591114</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="67">
         <f t="shared" si="5"/>
         <v>0.82802800493634665</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B11">
@@ -8684,42 +8708,42 @@
       <c r="F11" s="18">
         <v>9</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="58">
+      <c r="G11" s="56"/>
+      <c r="H11" s="40">
         <f>ABS('Forces Input '!AG12)*B11</f>
         <v>794.96802000000014</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="40">
         <f>SQRT('Forces Input '!AH12^2+'Forces Input '!AI12^2)*B11</f>
         <v>66.282551782457489</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="41">
         <f t="shared" si="1"/>
         <v>0.58072047530258186</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="41">
         <f t="shared" si="0"/>
         <v>0.82930327822149064</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="41">
         <f t="shared" si="2"/>
         <v>11.367477790803877</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="41">
         <f t="shared" si="3"/>
         <v>25.890594948100656</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="41">
         <f t="shared" si="4"/>
         <v>0.58069891949878238</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="67">
         <f t="shared" si="5"/>
         <v>0.82925744469504759</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B12">
@@ -8731,36 +8755,36 @@
       <c r="F12" s="18">
         <v>10</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="58">
+      <c r="G12" s="56"/>
+      <c r="H12" s="40">
         <f>ABS('Forces Input '!AG13)*B11</f>
         <v>347.14493000000004</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="40">
         <f>SQRT('Forces Input '!AH13^2+'Forces Input '!AI13^2)*B11</f>
         <v>558.58931387052098</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="41">
         <f t="shared" si="1"/>
         <v>0.58194400053274387</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="41">
         <f t="shared" si="0"/>
         <v>0.83128511269255068</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="41">
         <f t="shared" si="2"/>
         <v>27.321742540642408</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="41">
         <f t="shared" si="3"/>
         <v>2.3010315339605913</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="41">
         <f t="shared" si="4"/>
         <v>0.58041172577058608</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="67">
         <f t="shared" si="5"/>
         <v>0.82802796619211483</v>
       </c>
@@ -8769,36 +8793,36 @@
       <c r="F13" s="18">
         <v>11</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="58">
+      <c r="G13" s="56"/>
+      <c r="H13" s="40">
         <f>ABS('Forces Input '!AG14)*B11</f>
         <v>321.14874000000003</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="40">
         <f>SQRT('Forces Input '!AH14^2+'Forces Input '!AI14^2)*B11</f>
         <v>258.14826397383592</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="41">
         <f t="shared" si="1"/>
         <v>0.58201508450535488</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="41">
         <f t="shared" si="0"/>
         <v>0.83140029032955809</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="41">
         <f t="shared" si="2"/>
         <v>29.614317003857252</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="41">
         <f t="shared" si="3"/>
         <v>6.156715022734125</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="41">
         <f t="shared" si="4"/>
         <v>0.58168740840909949</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="67">
         <f t="shared" si="5"/>
         <v>0.83070304726609256</v>
       </c>
@@ -8807,36 +8831,36 @@
       <c r="F14" s="19">
         <v>12</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="59">
+      <c r="G14" s="65"/>
+      <c r="H14" s="41">
         <f>ABS('Forces Input '!AG15)*B11</f>
         <v>321.14896000000005</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="41">
         <f>SQRT('Forces Input '!AH15^2+'Forces Input '!AI15^2)*B11</f>
         <v>258.14952068031249</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="41">
         <f t="shared" si="1"/>
         <v>0.58201508390375967</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="41">
         <f t="shared" si="0"/>
         <v>0.83140028935477406</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="41">
         <f t="shared" si="2"/>
         <v>29.61429603181443</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="41">
         <f t="shared" si="3"/>
         <v>6.1566800657666194</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="41">
         <f t="shared" si="4"/>
         <v>0.58168740461850388</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="67">
         <f t="shared" si="5"/>
         <v>0.83070303950770286</v>
       </c>
@@ -8845,38 +8869,38 @@
       <c r="F15" s="20">
         <v>1</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="39">
         <f>ABS('Forces Input '!R4)*B11</f>
         <v>321.14841000000001</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="40">
         <f>SQRT('Forces Input '!S4^2+'Forces Input '!T4^2)*B11</f>
         <v>258.14754223864605</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="41">
         <f t="shared" si="1"/>
         <v>0.58201508540774727</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="41">
         <f t="shared" si="0"/>
         <v>0.83140029179173447</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="41">
         <f t="shared" si="2"/>
         <v>29.614348461975361</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="41">
         <f t="shared" si="3"/>
         <v>6.1567352073326651</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="41">
         <f t="shared" si="4"/>
         <v>0.58168741114260403</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="67">
         <f t="shared" si="5"/>
         <v>0.83070305262309541</v>
       </c>
@@ -8886,36 +8910,36 @@
       <c r="F16" s="18">
         <v>2</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="58">
+      <c r="G16" s="56"/>
+      <c r="H16" s="40">
         <f>ABS('Forces Input '!R5)*B11</f>
         <v>321.14709000000005</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="40">
         <f>SQRT('Forces Input '!S5^2+'Forces Input '!T5^2)*B11</f>
         <v>258.14905805092656</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="41">
         <f t="shared" si="1"/>
         <v>0.5820150890173168</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="41">
         <f t="shared" si="0"/>
         <v>0.83140029764043932</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="41">
         <f t="shared" si="2"/>
         <v>29.614474295094283</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="41">
         <f t="shared" si="3"/>
         <v>6.156693886781345</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="41">
         <f t="shared" si="4"/>
         <v>0.58168741090298504</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="67">
         <f t="shared" si="5"/>
         <v>0.83070305028155955</v>
       </c>
@@ -8924,36 +8948,36 @@
       <c r="F17" s="18">
         <v>3</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="58">
+      <c r="G17" s="56"/>
+      <c r="H17" s="40">
         <f>ABS('Forces Input '!R6)*B11</f>
         <v>794.96747000000016</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="40">
         <f>SQRT('Forces Input '!S6^2+'Forces Input '!T6^2)*B11</f>
         <v>66.282769543534158</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="41">
         <f t="shared" si="1"/>
         <v>0.58072047680410899</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="41">
         <f t="shared" si="0"/>
         <v>0.82930328065287373</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="41">
         <f t="shared" si="2"/>
         <v>11.367486347270699</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="41">
         <f t="shared" si="3"/>
         <v>25.89050774385084</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="41">
         <f t="shared" si="4"/>
         <v>0.58069892085861397</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="67">
         <f t="shared" si="5"/>
         <v>0.82925744682510083</v>
       </c>
@@ -8962,36 +8986,36 @@
       <c r="F18" s="18">
         <v>4</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="58">
+      <c r="G18" s="56"/>
+      <c r="H18" s="40">
         <f>ABS('Forces Input '!R7)*B11</f>
         <v>347.13976000000002</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="40">
         <f>SQRT('Forces Input '!S7^2+'Forces Input '!T7^2)*B11</f>
         <v>558.58849082811287</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="41">
         <f t="shared" si="1"/>
         <v>0.58194401466895518</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="41">
         <f t="shared" si="0"/>
         <v>0.83128513559709716</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="41">
         <f t="shared" si="2"/>
         <v>27.322164340233833</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="41">
         <f t="shared" si="3"/>
         <v>2.3010376697738306</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="41">
         <f t="shared" si="4"/>
         <v>0.58041174437459864</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="67">
         <f t="shared" si="5"/>
         <v>0.82802799854742104</v>
       </c>
@@ -9000,36 +9024,36 @@
       <c r="F19" s="18">
         <v>5</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="58">
+      <c r="G19" s="56"/>
+      <c r="H19" s="40">
         <f>ABS('Forces Input '!R8)*B11</f>
         <v>794.96813000000009</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="40">
         <f>SQRT('Forces Input '!S8^2+'Forces Input '!T8^2)*B11</f>
         <v>66.283006161069977</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="41">
         <f t="shared" si="1"/>
         <v>0.58072047500227675</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="41">
         <f t="shared" si="0"/>
         <v>0.82930327773521428</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="41">
         <f t="shared" si="2"/>
         <v>11.367476079511931</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="41">
         <f t="shared" si="3"/>
         <v>25.890410381511526</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="41">
         <f t="shared" si="4"/>
         <v>0.58069891890295677</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="67">
         <f t="shared" si="5"/>
         <v>0.82925744358043563</v>
       </c>
@@ -9038,36 +9062,36 @@
       <c r="F20" s="18">
         <v>6</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="58">
+      <c r="G20" s="56"/>
+      <c r="H20" s="40">
         <f>ABS('Forces Input '!R9)*B11</f>
         <v>347.14383000000004</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="40">
         <f>SQRT('Forces Input '!S9^2+'Forces Input '!T9^2)*B11</f>
         <v>558.58918045957228</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="41">
         <f t="shared" si="1"/>
         <v>0.58194400354044862</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="41">
         <f t="shared" si="0"/>
         <v>0.83128511756585821</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="41">
         <f t="shared" si="2"/>
         <v>27.32183228418414</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="41">
         <f t="shared" si="3"/>
         <v>2.301032592995027</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="41">
         <f t="shared" si="4"/>
         <v>0.58041172950041942</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="67">
         <f t="shared" si="5"/>
         <v>0.82802797259116145</v>
       </c>
@@ -9076,36 +9100,36 @@
       <c r="F21" s="18">
         <v>7</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="58">
+      <c r="G21" s="56"/>
+      <c r="H21" s="40">
         <f>ABS('Forces Input '!R10)*B11</f>
         <v>347.14449000000002</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="40">
         <f>SQRT('Forces Input '!S10^2+'Forces Input '!T10^2)*B11</f>
         <v>558.58847819324069</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="41">
         <f t="shared" si="1"/>
         <v>0.58194400173582594</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="41">
         <f t="shared" si="0"/>
         <v>0.8312851146418736</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="41">
         <f t="shared" si="2"/>
         <v>27.321778437990854</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="41">
         <f t="shared" si="3"/>
         <v>2.3010365807271036</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="41">
         <f t="shared" si="4"/>
         <v>0.58041173154823089</v>
       </c>
-      <c r="O21" s="53">
+      <c r="O21" s="67">
         <f t="shared" si="5"/>
         <v>0.82802797785076709</v>
       </c>
@@ -9114,36 +9138,36 @@
       <c r="F22" s="18">
         <v>8</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="58">
+      <c r="G22" s="56"/>
+      <c r="H22" s="40">
         <f>ABS('Forces Input '!R11)*B11</f>
         <v>794.97341000000006</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="40">
         <f>SQRT('Forces Input '!S11^2+'Forces Input '!T11^2)*B11</f>
         <v>66.283701482817776</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="41">
         <f t="shared" si="1"/>
         <v>0.58072046058761861</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="41">
         <f t="shared" si="0"/>
         <v>0.82930325439394004</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="41">
         <f t="shared" si="2"/>
         <v>11.367393938055528</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="41">
         <f t="shared" si="3"/>
         <v>25.890117351557436</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="41">
         <f t="shared" si="4"/>
         <v>0.58069890403663993</v>
       </c>
-      <c r="O22" s="53">
+      <c r="O22" s="67">
         <f t="shared" si="5"/>
         <v>0.82925741927932872</v>
       </c>
@@ -9152,36 +9176,36 @@
       <c r="F23" s="18">
         <v>9</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="58">
+      <c r="G23" s="56"/>
+      <c r="H23" s="40">
         <f>ABS('Forces Input '!R12)*B11</f>
         <v>347.14009000000004</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="40">
         <f>SQRT('Forces Input '!S12^2+'Forces Input '!T12^2)*B11</f>
         <v>558.58713610928339</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="41">
         <f t="shared" si="1"/>
         <v>0.58194401376664384</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="41">
         <f t="shared" si="0"/>
         <v>0.83128513413510485</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="41">
         <f t="shared" si="2"/>
         <v>27.322137416480277</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="41">
         <f t="shared" si="3"/>
         <v>2.301045594457686</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="41">
         <f t="shared" si="4"/>
         <v>0.58041175089639152</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="67">
         <f t="shared" si="5"/>
         <v>0.82802801284984007</v>
       </c>
@@ -9190,36 +9214,36 @@
       <c r="F24" s="18">
         <v>10</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="58">
+      <c r="G24" s="56"/>
+      <c r="H24" s="40">
         <f>ABS('Forces Input '!R13)*B11</f>
         <v>794.97352000000012</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="40">
         <f>SQRT('Forces Input '!S13^2+'Forces Input '!T13^2)*B11</f>
         <v>66.283894335975077</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="41">
         <f t="shared" si="1"/>
         <v>0.5807204602873135</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="41">
         <f t="shared" si="0"/>
         <v>0.82930325390766368</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="41">
         <f t="shared" si="2"/>
         <v>11.367392226786787</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="41">
         <f t="shared" si="3"/>
         <v>25.890038886626755</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="41">
         <f t="shared" si="4"/>
         <v>0.58069890361091114</v>
       </c>
-      <c r="O24" s="53">
+      <c r="O24" s="67">
         <f t="shared" si="5"/>
         <v>0.82925741852638257</v>
       </c>
@@ -9228,36 +9252,36 @@
       <c r="F25" s="18">
         <v>11</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="58">
+      <c r="G25" s="56"/>
+      <c r="H25" s="40">
         <f>ABS('Forces Input '!R14)*B11</f>
         <v>321.14797000000004</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="40">
         <f>SQRT('Forces Input '!S14^2+'Forces Input '!T14^2)*B11</f>
         <v>258.15028474890192</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="41">
         <f t="shared" si="1"/>
         <v>0.58201508661093704</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="41">
         <f t="shared" si="0"/>
         <v>0.83140029374130275</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="41">
         <f t="shared" si="2"/>
         <v>29.614390406233397</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="41">
         <f t="shared" si="3"/>
         <v>6.156659410588329</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="41">
         <f t="shared" si="4"/>
         <v>0.58168740538487462</v>
       </c>
-      <c r="O25" s="53">
+      <c r="O25" s="67">
         <f t="shared" si="5"/>
         <v>0.83070303976414683</v>
       </c>
@@ -9266,36 +9290,36 @@
       <c r="F26" s="19">
         <v>12</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="59">
+      <c r="G26" s="65"/>
+      <c r="H26" s="41">
         <f>ABS('Forces Input '!R15)*B11</f>
         <v>321.14940000000001</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="41">
         <f>SQRT('Forces Input '!S15^2+'Forces Input '!T15^2)*B11</f>
         <v>258.14825957179789</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="41">
         <f t="shared" si="1"/>
         <v>0.58201508270057012</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="41">
         <f t="shared" si="0"/>
         <v>0.83140028740520577</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="41">
         <f t="shared" si="2"/>
         <v>29.614254087814992</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="41">
         <f t="shared" si="3"/>
         <v>6.1567147934134807</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="41">
         <f t="shared" si="4"/>
         <v>0.58168740661660778</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="67">
         <f t="shared" si="5"/>
         <v>0.83070304436884501</v>
       </c>
@@ -9304,38 +9328,38 @@
       <c r="F27" s="18">
         <v>1</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="40">
         <f>ABS('Forces Input '!C4)*B11</f>
         <v>390.84265000000005</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="40">
         <f>SQRT('Forces Input '!D4^2+'Forces Input '!E4^2)*B11</f>
         <v>17.263992970872327</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="41">
         <f t="shared" si="1"/>
         <v>0.58182452789528227</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="41">
         <f t="shared" si="0"/>
         <v>0.83109154003310381</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="41">
         <f t="shared" si="2"/>
         <v>24.155262179675965</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="41">
         <f t="shared" si="3"/>
         <v>105.45947478585234</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="41">
         <f t="shared" si="4"/>
         <v>0.58182306246135007</v>
       </c>
-      <c r="O27" s="53">
+      <c r="O27" s="67">
         <f t="shared" si="5"/>
         <v>0.8310884214625216</v>
       </c>
@@ -9344,36 +9368,36 @@
       <c r="F28" s="18">
         <v>2</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="60">
+      <c r="G28" s="56"/>
+      <c r="H28" s="40">
         <f>ABS('Forces Input '!C5)*B11</f>
         <v>390.84232000000003</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="40">
         <f>SQRT('Forces Input '!D5^2+'Forces Input '!E5^2)*B11</f>
         <v>17.264327433667667</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="41">
         <f t="shared" si="1"/>
         <v>0.5818245287974575</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="41">
         <f t="shared" si="0"/>
         <v>0.83109154149478726</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="41">
         <f t="shared" si="2"/>
         <v>24.155283419025178</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="41">
         <f t="shared" si="3"/>
         <v>105.45741496729089</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="41">
         <f t="shared" si="4"/>
         <v>0.58182306330674116</v>
       </c>
-      <c r="O28" s="53">
+      <c r="O28" s="67">
         <f t="shared" si="5"/>
         <v>0.83108842280336193</v>
       </c>
@@ -9382,36 +9406,36 @@
       <c r="F29" s="18">
         <v>3</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="60">
+      <c r="G29" s="56"/>
+      <c r="H29" s="40">
         <f>ABS('Forces Input '!C6)*B11</f>
         <v>740.42331000000013</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="40">
         <f>SQRT('Forces Input '!D6^2+'Forces Input '!E6^2)*B11</f>
         <v>148.23756565566447</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="41">
         <f t="shared" si="1"/>
         <v>0.5808693990552205</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="41">
         <f t="shared" si="0"/>
         <v>0.8295444355865309</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="41">
         <f t="shared" si="2"/>
         <v>12.278551875614681</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="41">
         <f t="shared" si="3"/>
         <v>11.074356764873537</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="41">
         <f t="shared" si="4"/>
         <v>0.58076156162801262</v>
       </c>
-      <c r="O29" s="53">
+      <c r="O29" s="67">
         <f t="shared" si="5"/>
         <v>0.82931513360919062</v>
       </c>
@@ -9420,36 +9444,36 @@
       <c r="F30" s="18">
         <v>4</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="60">
+      <c r="G30" s="56"/>
+      <c r="H30" s="40">
         <f>ABS('Forces Input '!C7)*B11</f>
         <v>740.42474000000004</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="40">
         <f>SQRT('Forces Input '!D7^2+'Forces Input '!E7^2)*B11</f>
         <v>148.23799614359811</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="41">
         <f t="shared" si="1"/>
         <v>0.58086939515051483</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="41">
         <f t="shared" si="0"/>
         <v>0.82954442926326899</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="41">
         <f t="shared" si="2"/>
         <v>12.278526230430026</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="41">
         <f t="shared" si="3"/>
         <v>11.074320374825835</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="41">
         <f t="shared" si="4"/>
         <v>0.58076155709784061</v>
       </c>
-      <c r="O30" s="53">
+      <c r="O30" s="67">
         <f t="shared" si="5"/>
         <v>0.82931512595675017</v>
       </c>
@@ -9458,36 +9482,36 @@
       <c r="F31" s="18">
         <v>5</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="60">
+      <c r="G31" s="56"/>
+      <c r="H31" s="40">
         <f>ABS('Forces Input '!C8)*B11</f>
         <v>740.42408</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="40">
         <f>SQRT('Forces Input '!D8^2+'Forces Input '!E8^2)*B11</f>
         <v>148.2358096439346</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="41">
         <f t="shared" si="1"/>
         <v>0.58086939695268658</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="41">
         <f t="shared" si="0"/>
         <v>0.8295444321816976</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="41">
         <f t="shared" si="2"/>
         <v>12.278538066656791</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="41">
         <f t="shared" si="3"/>
         <v>11.074499084682497</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="41">
         <f t="shared" si="4"/>
         <v>0.58076156208050156</v>
       </c>
-      <c r="O31" s="53">
+      <c r="O31" s="67">
         <f t="shared" si="5"/>
         <v>0.82931513563717441</v>
       </c>
@@ -9496,36 +9520,36 @@
       <c r="F32" s="18">
         <v>6</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="60">
+      <c r="G32" s="56"/>
+      <c r="H32" s="40">
         <f>ABS('Forces Input '!C9)*B11</f>
         <v>740.42518000000007</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="40">
         <f>SQRT('Forces Input '!D9^2+'Forces Input '!E9^2)*B11</f>
         <v>148.23543606925739</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="41">
         <f t="shared" si="1"/>
         <v>0.580869393949067</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="41">
         <f t="shared" si="0"/>
         <v>0.82954442731764999</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="41">
         <f t="shared" si="2"/>
         <v>12.278518339623906</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="41">
         <f t="shared" si="3"/>
         <v>11.074528494355281</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="41">
         <f t="shared" si="4"/>
         <v>0.58076155962095788</v>
       </c>
-      <c r="O32" s="53">
+      <c r="O32" s="67">
         <f t="shared" si="5"/>
         <v>0.82931513193045414</v>
       </c>
@@ -9534,36 +9558,36 @@
       <c r="F33" s="18">
         <v>7</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="60">
+      <c r="G33" s="56"/>
+      <c r="H33" s="40">
         <f>ABS('Forces Input '!C10)*B11</f>
         <v>740.42353000000003</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="40">
         <f>SQRT('Forces Input '!D10^2+'Forces Input '!E10^2)*B11</f>
         <v>148.23719653506615</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="41">
         <f t="shared" si="1"/>
         <v>0.58086939845449637</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="41">
         <f t="shared" si="0"/>
         <v>0.82954443461372129</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="41">
         <f t="shared" si="2"/>
         <v>12.278547930195213</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="41">
         <f t="shared" si="3"/>
         <v>11.074386626875862</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="41">
         <f t="shared" si="4"/>
         <v>0.58076156156439929</v>
       </c>
-      <c r="O33" s="53">
+      <c r="O33" s="67">
         <f t="shared" si="5"/>
         <v>0.82931513377848276</v>
       </c>
@@ -9572,36 +9596,36 @@
       <c r="F34" s="18">
         <v>8</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="60">
+      <c r="G34" s="56"/>
+      <c r="H34" s="40">
         <f>ABS('Forces Input '!C11)*B11</f>
         <v>740.42573000000004</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="40">
         <f>SQRT('Forces Input '!D11^2+'Forces Input '!E11^2)*B11</f>
         <v>148.23841047911517</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="41">
         <f t="shared" si="1"/>
         <v>0.58086939244725722</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="41">
         <f t="shared" si="0"/>
         <v>0.82954442488562607</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="41">
         <f t="shared" si="2"/>
         <v>12.278508476129444</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="41">
         <f t="shared" si="3"/>
         <v>11.07428570854707</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="41">
         <f t="shared" si="4"/>
         <v>0.58076155379236716</v>
       </c>
-      <c r="O34" s="53">
+      <c r="O34" s="67">
         <f t="shared" si="5"/>
         <v>0.82931512029915422</v>
       </c>
@@ -9610,36 +9634,36 @@
       <c r="F35" s="18">
         <v>9</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="60">
+      <c r="G35" s="56"/>
+      <c r="H35" s="40">
         <f>ABS('Forces Input '!C12)*B11</f>
         <v>740.42298000000005</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="40">
         <f>SQRT('Forces Input '!D12^2+'Forces Input '!E12^2)*B11</f>
         <v>148.23724292048493</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="41">
         <f t="shared" si="1"/>
         <v>0.58086939995630638</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="41">
         <f t="shared" si="0"/>
         <v>0.82954443704574521</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="41">
         <f t="shared" si="2"/>
         <v>12.278557793748286</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="41">
         <f t="shared" si="3"/>
         <v>11.074383358535488</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="41">
         <f t="shared" si="4"/>
         <v>0.58076156299842174</v>
       </c>
-      <c r="O35" s="53">
+      <c r="O35" s="67">
         <f t="shared" si="5"/>
         <v>0.82931513606611684</v>
       </c>
@@ -9648,36 +9672,36 @@
       <c r="F36" s="18">
         <v>10</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="60">
+      <c r="G36" s="56"/>
+      <c r="H36" s="40">
         <f>ABS('Forces Input '!C13)*B11</f>
         <v>740.42573000000004</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="40">
         <f>SQRT('Forces Input '!D13^2+'Forces Input '!E13^2)*B11</f>
         <v>148.2382676900059</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="41">
         <f t="shared" si="1"/>
         <v>0.58086939244725722</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="41">
         <f t="shared" si="0"/>
         <v>0.82954442488562607</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="41">
         <f t="shared" si="2"/>
         <v>12.278508476129444</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="41">
         <f t="shared" si="3"/>
         <v>11.074297338988577</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="41">
         <f t="shared" si="4"/>
         <v>0.58076155400009499</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="67">
         <f t="shared" si="5"/>
         <v>0.82931512074082181</v>
       </c>
@@ -9686,36 +9710,36 @@
       <c r="F37" s="18">
         <v>11</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="60">
+      <c r="G37" s="56"/>
+      <c r="H37" s="40">
         <f>ABS('Forces Input '!C14)*B11</f>
         <v>390.84254000000004</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="40">
         <f>SQRT('Forces Input '!D14^2+'Forces Input '!E14^2)*B11</f>
         <v>17.263604074128004</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="41">
         <f t="shared" si="1"/>
         <v>0.5818245281960075</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="41">
         <f t="shared" si="0"/>
         <v>0.83109154052033185</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="41">
         <f t="shared" si="2"/>
         <v>24.15526925945505</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="41">
         <f t="shared" si="3"/>
         <v>105.46187387124095</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="41">
         <f t="shared" si="4"/>
         <v>0.58182306282809537</v>
       </c>
-      <c r="O37" s="53">
+      <c r="O37" s="67">
         <f t="shared" si="5"/>
         <v>0.83108842209024569</v>
       </c>
@@ -9724,36 +9748,36 @@
       <c r="F38" s="17">
         <v>12</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="62">
+      <c r="G38" s="57"/>
+      <c r="H38" s="46">
         <f>ABS('Forces Input '!C15)*B11</f>
         <v>390.84364000000005</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="46">
         <f>SQRT('Forces Input '!D15^2+'Forces Input '!E15^2)*B11</f>
         <v>17.263433017298297</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="46">
         <f t="shared" si="1"/>
         <v>0.58182452518875727</v>
       </c>
-      <c r="K38" s="55">
+      <c r="K38" s="46">
         <f t="shared" si="0"/>
         <v>0.83109153564805394</v>
       </c>
-      <c r="L38" s="55">
+      <c r="L38" s="46">
         <f t="shared" si="2"/>
         <v>24.155198461843543</v>
       </c>
-      <c r="M38" s="55">
+      <c r="M38" s="46">
         <f t="shared" si="3"/>
         <v>105.46292000494928</v>
       </c>
-      <c r="N38" s="63">
+      <c r="N38" s="68">
         <f t="shared" si="4"/>
         <v>0.58182305984989235</v>
       </c>
-      <c r="O38" s="64">
+      <c r="O38" s="69">
         <f t="shared" si="5"/>
         <v>0.83108841727979077</v>
       </c>
@@ -9763,42 +9787,42 @@
       <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
     </row>
     <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -9808,7 +9832,7 @@
       <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B43">
@@ -9818,23 +9842,23 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="42" t="s">
+      <c r="J43" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="K43" s="43"/>
+      <c r="K43" s="62"/>
       <c r="L43" s="24" t="s">
         <v>75</v>
       </c>
       <c r="M43" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="42" t="s">
+      <c r="N43" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="O43" s="44"/>
+      <c r="O43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B44">
@@ -9843,73 +9867,73 @@
       <c r="C44" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="81" t="s">
+      <c r="I44" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="J44" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="N44" s="50" t="s">
+      <c r="N44" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="O44" s="66" t="s">
+      <c r="O44" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F45" s="67">
+      <c r="F45" s="44">
         <v>1</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="45">
         <f>ABS('Forces Input '!AG22)*B43*B44</f>
         <v>2540.1545400000005</v>
       </c>
-      <c r="I45" s="69">
+      <c r="I45" s="45">
         <f>SQRT('Forces Input '!AH22^2+'Forces Input '!AI22^2)*B43*B44</f>
         <v>2199.6677480096496</v>
       </c>
-      <c r="J45" s="78">
+      <c r="J45" s="45">
         <f t="shared" ref="J45:J80" si="6" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H45*$D$4) ) ) -1</f>
         <v>0.57597034817231951</v>
       </c>
-      <c r="K45" s="78">
+      <c r="K45" s="45">
         <f t="shared" ref="K45:K80" si="7" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H45*$D$5) ) ) -1</f>
         <v>0.82162073976412064</v>
       </c>
-      <c r="L45" s="78">
+      <c r="L45" s="45">
         <f t="shared" ref="L45:L80" si="8" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H45*$D$5) ) -1</f>
         <v>2.8705319605276185</v>
       </c>
-      <c r="M45" s="78">
+      <c r="M45" s="45">
         <f t="shared" ref="M45:M80" si="9" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H45)*$D$6) / (I45*$D$5) ) -1</f>
         <v>-0.29874011055336691</v>
       </c>
-      <c r="N45" s="78">
+      <c r="N45" s="45">
         <f>1/(SQRT(      (((I45*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H45*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.55295734948840392</v>
       </c>
-      <c r="O45" s="79">
+      <c r="O45" s="70">
         <f>1/(SQRT(      (((I45*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H45*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.77373144890593837</v>
       </c>
@@ -9918,36 +9942,36 @@
       <c r="F46" s="18">
         <v>2</v>
       </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="58">
+      <c r="G46" s="56"/>
+      <c r="H46" s="40">
         <f>ABS('Forces Input '!AG23)*B43*B44</f>
         <v>2540.1400200000003</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="40">
         <f>SQRT('Forces Input '!AH23^2+'Forces Input '!AI23^2)*B43*B44</f>
         <v>2199.6734718697544</v>
       </c>
-      <c r="J46" s="77">
+      <c r="J46" s="40">
         <f t="shared" si="6"/>
         <v>0.57597038757474661</v>
       </c>
-      <c r="K46" s="77">
+      <c r="K46" s="40">
         <f t="shared" si="7"/>
         <v>0.82162080341461374</v>
       </c>
-      <c r="L46" s="77">
+      <c r="L46" s="40">
         <f t="shared" si="8"/>
         <v>2.8705540853410634</v>
       </c>
-      <c r="M46" s="77">
+      <c r="M46" s="40">
         <f t="shared" si="9"/>
         <v>-0.29874102816712766</v>
       </c>
-      <c r="N46" s="77">
+      <c r="N46" s="40">
         <f t="shared" ref="N46:N56" si="10">1/(SQRT(      (((I46*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H46*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.55295727003376771</v>
       </c>
-      <c r="O46" s="80">
+      <c r="O46" s="71">
         <f t="shared" ref="O46:O56" si="11">1/(SQRT(      (((I46*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H46*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.77373126817898941</v>
       </c>
@@ -9956,36 +9980,36 @@
       <c r="F47" s="18">
         <v>3</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="58">
+      <c r="G47" s="56"/>
+      <c r="H47" s="40">
         <f>ABS('Forces Input '!AG24)*B43*B44</f>
         <v>2791.2449400000005</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="40">
         <f>SQRT('Forces Input '!AH24^2+'Forces Input '!AI24^2)*B43*B44</f>
         <v>4015.225666907389</v>
       </c>
-      <c r="J47" s="77">
+      <c r="J47" s="40">
         <f t="shared" si="6"/>
         <v>0.57528926723183083</v>
       </c>
-      <c r="K47" s="77">
+      <c r="K47" s="40">
         <f t="shared" si="7"/>
         <v>0.82052071385647474</v>
       </c>
-      <c r="L47" s="77">
+      <c r="L47" s="40">
         <f t="shared" si="8"/>
         <v>2.5223527648380903</v>
       </c>
-      <c r="M47" s="77">
+      <c r="M47" s="40">
         <f t="shared" si="9"/>
         <v>-0.62442166594868864</v>
       </c>
-      <c r="N47" s="77">
+      <c r="N47" s="40">
         <f t="shared" si="10"/>
         <v>0.50239018487581433</v>
       </c>
-      <c r="O47" s="80">
+      <c r="O47" s="71">
         <f t="shared" si="11"/>
         <v>0.67441351487135348</v>
       </c>
@@ -9994,36 +10018,36 @@
       <c r="F48" s="18">
         <v>4</v>
       </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="58">
+      <c r="G48" s="56"/>
+      <c r="H48" s="40">
         <f>ABS('Forces Input '!AG25)*B43*B44</f>
         <v>6571.0358999999999</v>
       </c>
-      <c r="I48" s="58">
+      <c r="I48" s="40">
         <f>SQRT('Forces Input '!AH25^2+'Forces Input '!AI25^2)*B43*B44</f>
         <v>1310.1997110768405</v>
       </c>
-      <c r="J48" s="77">
+      <c r="J48" s="40">
         <f t="shared" si="6"/>
         <v>0.56510728181763903</v>
       </c>
-      <c r="K48" s="77">
+      <c r="K48" s="40">
         <f t="shared" si="7"/>
         <v>0.80412055032971441</v>
       </c>
-      <c r="L48" s="77">
+      <c r="L48" s="40">
         <f t="shared" si="8"/>
         <v>0.49622517383436171</v>
       </c>
-      <c r="M48" s="77">
+      <c r="M48" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547342933451755</v>
       </c>
-      <c r="N48" s="77">
+      <c r="N48" s="40">
         <f t="shared" si="10"/>
         <v>0.55699524228214337</v>
       </c>
-      <c r="O48" s="80">
+      <c r="O48" s="71">
         <f t="shared" si="11"/>
         <v>0.78718240570120535</v>
       </c>
@@ -10032,36 +10056,36 @@
       <c r="F49" s="18">
         <v>5</v>
       </c>
-      <c r="G49" s="54"/>
-      <c r="H49" s="58">
+      <c r="G49" s="56"/>
+      <c r="H49" s="40">
         <f>ABS('Forces Input '!AG26)*B43*B44</f>
         <v>2791.1931300000001</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I49" s="40">
         <f>SQRT('Forces Input '!AH26^2+'Forces Input '!AI26^2)*B43*B44</f>
         <v>4015.1991943083649</v>
       </c>
-      <c r="J49" s="77">
+      <c r="J49" s="40">
         <f t="shared" si="6"/>
         <v>0.57528940770536918</v>
       </c>
-      <c r="K49" s="77">
+      <c r="K49" s="40">
         <f t="shared" si="7"/>
         <v>0.82052094069881232</v>
       </c>
-      <c r="L49" s="77">
+      <c r="L49" s="40">
         <f t="shared" si="8"/>
         <v>2.5224181465899966</v>
       </c>
-      <c r="M49" s="77">
+      <c r="M49" s="40">
         <f t="shared" si="9"/>
         <v>-0.62441741641881487</v>
       </c>
-      <c r="N49" s="77">
+      <c r="N49" s="40">
         <f t="shared" si="10"/>
         <v>0.50239120229300327</v>
       </c>
-      <c r="O49" s="80">
+      <c r="O49" s="71">
         <f t="shared" si="11"/>
         <v>0.67441539222160563</v>
       </c>
@@ -10070,36 +10094,36 @@
       <c r="F50" s="18">
         <v>6</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="58">
+      <c r="G50" s="56"/>
+      <c r="H50" s="40">
         <f>ABS('Forces Input '!AG27)*B43*B44</f>
         <v>6571.0326000000005</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I50" s="40">
         <f>SQRT('Forces Input '!AH27^2+'Forces Input '!AI27^2)*B43*B44</f>
         <v>1310.19979978125</v>
       </c>
-      <c r="J50" s="77">
+      <c r="J50" s="40">
         <f t="shared" si="6"/>
         <v>0.56510729064970766</v>
       </c>
-      <c r="K50" s="77">
+      <c r="K50" s="40">
         <f t="shared" si="7"/>
         <v>0.80412056451912206</v>
       </c>
-      <c r="L50" s="77">
+      <c r="L50" s="40">
         <f t="shared" si="8"/>
         <v>0.49622592524488929</v>
       </c>
-      <c r="M50" s="77">
+      <c r="M50" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547313427688455</v>
       </c>
-      <c r="N50" s="77">
+      <c r="N50" s="40">
         <f t="shared" si="10"/>
         <v>0.55699524988769777</v>
       </c>
-      <c r="O50" s="80">
+      <c r="O50" s="71">
         <f t="shared" si="11"/>
         <v>0.78718241723337057</v>
       </c>
@@ -10108,36 +10132,36 @@
       <c r="F51" s="18">
         <v>7</v>
       </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="58">
+      <c r="G51" s="56"/>
+      <c r="H51" s="40">
         <f>ABS('Forces Input '!AG28)*B43*B44</f>
         <v>6571.0061999999998</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="40">
         <f>SQRT('Forces Input '!AH28^2+'Forces Input '!AI28^2)*B43*B44</f>
         <v>1310.206504828343</v>
       </c>
-      <c r="J51" s="77">
+      <c r="J51" s="40">
         <f t="shared" si="6"/>
         <v>0.56510736130625916</v>
       </c>
-      <c r="K51" s="77">
+      <c r="K51" s="40">
         <f t="shared" si="7"/>
         <v>0.80412067803439213</v>
       </c>
-      <c r="L51" s="77">
+      <c r="L51" s="40">
         <f t="shared" si="8"/>
         <v>0.49623193655628128</v>
       </c>
-      <c r="M51" s="77">
+      <c r="M51" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547422648935358</v>
       </c>
-      <c r="N51" s="77">
+      <c r="N51" s="40">
         <f t="shared" si="10"/>
         <v>0.55699523706748999</v>
       </c>
-      <c r="O51" s="80">
+      <c r="O51" s="71">
         <f t="shared" si="11"/>
         <v>0.78718235665019365</v>
       </c>
@@ -10146,36 +10170,36 @@
       <c r="F52" s="18">
         <v>8</v>
       </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="58">
+      <c r="G52" s="56"/>
+      <c r="H52" s="40">
         <f>ABS('Forces Input '!AG29)*B43*B44</f>
         <v>2791.1970900000006</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="40">
         <f>SQRT('Forces Input '!AH29^2+'Forces Input '!AI29^2)*B43*B44</f>
         <v>4015.219688763274</v>
       </c>
-      <c r="J52" s="77">
+      <c r="J52" s="40">
         <f t="shared" si="6"/>
         <v>0.57528939696853709</v>
       </c>
-      <c r="K52" s="77">
+      <c r="K52" s="40">
         <f t="shared" si="7"/>
         <v>0.82052092336054239</v>
       </c>
-      <c r="L52" s="77">
+      <c r="L52" s="40">
         <f t="shared" si="8"/>
         <v>2.5224131491729707</v>
       </c>
-      <c r="M52" s="77">
+      <c r="M52" s="40">
         <f t="shared" si="9"/>
         <v>-0.6244194690032574</v>
       </c>
-      <c r="N52" s="77">
+      <c r="N52" s="40">
         <f t="shared" si="10"/>
         <v>0.50239049966033433</v>
       </c>
-      <c r="O52" s="80">
+      <c r="O52" s="71">
         <f t="shared" si="11"/>
         <v>0.67441406196849063</v>
       </c>
@@ -10184,36 +10208,36 @@
       <c r="F53" s="18">
         <v>9</v>
       </c>
-      <c r="G53" s="54"/>
-      <c r="H53" s="58">
+      <c r="G53" s="56"/>
+      <c r="H53" s="40">
         <f>ABS('Forces Input '!AG30)*B43*B44</f>
         <v>6571.0095000000001</v>
       </c>
-      <c r="I53" s="58">
+      <c r="I53" s="40">
         <f>SQRT('Forces Input '!AH30^2+'Forces Input '!AI30^2)*B43*B44</f>
         <v>1310.2072340073682</v>
       </c>
-      <c r="J53" s="77">
+      <c r="J53" s="40">
         <f t="shared" si="6"/>
         <v>0.56510735247419008</v>
       </c>
-      <c r="K53" s="77">
+      <c r="K53" s="40">
         <f t="shared" si="7"/>
         <v>0.80412066384498271</v>
       </c>
-      <c r="L53" s="77">
+      <c r="L53" s="40">
         <f t="shared" si="8"/>
         <v>0.49623118513971587</v>
       </c>
-      <c r="M53" s="77">
+      <c r="M53" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547499255034599</v>
       </c>
-      <c r="N53" s="77">
+      <c r="N53" s="40">
         <f t="shared" si="10"/>
         <v>0.55699521941271768</v>
       </c>
-      <c r="O53" s="80">
+      <c r="O53" s="71">
         <f t="shared" si="11"/>
         <v>0.78718232426776225</v>
       </c>
@@ -10222,36 +10246,36 @@
       <c r="F54" s="18">
         <v>10</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="58">
+      <c r="G54" s="56"/>
+      <c r="H54" s="40">
         <f>ABS('Forces Input '!AG31)*B43*B44</f>
         <v>2791.2492300000004</v>
       </c>
-      <c r="I54" s="58">
+      <c r="I54" s="40">
         <f>SQRT('Forces Input '!AH31^2+'Forces Input '!AI31^2)*B43*B44</f>
         <v>4015.2365522148302</v>
       </c>
-      <c r="J54" s="77">
+      <c r="J54" s="40">
         <f t="shared" si="6"/>
         <v>0.57528925560026511</v>
       </c>
-      <c r="K54" s="77">
+      <c r="K54" s="40">
         <f t="shared" si="7"/>
         <v>0.82052069507335368</v>
       </c>
-      <c r="L54" s="77">
+      <c r="L54" s="40">
         <f t="shared" si="8"/>
         <v>2.5223473511712649</v>
       </c>
-      <c r="M54" s="77">
+      <c r="M54" s="40">
         <f t="shared" si="9"/>
         <v>-0.62442283097449591</v>
       </c>
-      <c r="N54" s="77">
+      <c r="N54" s="40">
         <f t="shared" si="10"/>
         <v>0.50238980653890675</v>
       </c>
-      <c r="O54" s="80">
+      <c r="O54" s="71">
         <f t="shared" si="11"/>
         <v>0.67441280087746724</v>
       </c>
@@ -10260,36 +10284,36 @@
       <c r="F55" s="18">
         <v>11</v>
       </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="58">
+      <c r="G55" s="56"/>
+      <c r="H55" s="40">
         <f>ABS('Forces Input '!AG32)*B43*B44</f>
         <v>2540.1558600000003</v>
       </c>
-      <c r="I55" s="58">
+      <c r="I55" s="40">
         <f>SQRT('Forces Input '!AH32^2+'Forces Input '!AI32^2)*B43*B44</f>
         <v>2199.6741165011499</v>
       </c>
-      <c r="J55" s="77">
+      <c r="J55" s="40">
         <f t="shared" si="6"/>
         <v>0.57597034459028063</v>
       </c>
-      <c r="K55" s="77">
+      <c r="K55" s="40">
         <f t="shared" si="7"/>
         <v>0.8216207339777124</v>
       </c>
-      <c r="L55" s="77">
+      <c r="L55" s="40">
         <f t="shared" si="8"/>
         <v>2.8705299491934841</v>
       </c>
-      <c r="M55" s="77">
+      <c r="M55" s="40">
         <f t="shared" si="9"/>
         <v>-0.29874222330876321</v>
       </c>
-      <c r="N55" s="77">
+      <c r="N55" s="40">
         <f t="shared" si="10"/>
         <v>0.55295721571064216</v>
       </c>
-      <c r="O55" s="80">
+      <c r="O55" s="71">
         <f t="shared" si="11"/>
         <v>0.77373117710413841</v>
       </c>
@@ -10298,76 +10322,76 @@
       <c r="F56" s="17">
         <v>12</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="72">
+      <c r="G56" s="57"/>
+      <c r="H56" s="46">
         <f>ABS('Forces Input '!AG33)*B43*B44</f>
         <v>2540.15256</v>
       </c>
-      <c r="I56" s="72">
+      <c r="I56" s="46">
         <f>SQRT('Forces Input '!AH33^2+'Forces Input '!AI33^2)*B43*B44</f>
         <v>2199.671849451157</v>
       </c>
-      <c r="J56" s="55">
+      <c r="J56" s="46">
         <f t="shared" si="6"/>
         <v>0.57597035354537773</v>
       </c>
-      <c r="K56" s="55">
+      <c r="K56" s="46">
         <f t="shared" si="7"/>
         <v>0.82162074844373301</v>
       </c>
-      <c r="L56" s="55">
+      <c r="L56" s="46">
         <f t="shared" si="8"/>
         <v>2.8705349775327402</v>
       </c>
-      <c r="M56" s="55">
+      <c r="M56" s="46">
         <f t="shared" si="9"/>
         <v>-0.29874129439715102</v>
       </c>
-      <c r="N56" s="55">
+      <c r="N56" s="46">
         <f t="shared" si="10"/>
         <v>0.5529572706811865</v>
       </c>
-      <c r="O56" s="56">
+      <c r="O56" s="72">
         <f t="shared" si="11"/>
         <v>0.77373128531319946</v>
       </c>
     </row>
     <row r="57" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F57" s="67">
+      <c r="F57" s="44">
         <v>1</v>
       </c>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H57" s="69">
+      <c r="H57" s="45">
         <f>'Forces Input '!R22*B43*B44</f>
         <v>2540.1542100000001</v>
       </c>
-      <c r="I57" s="73">
+      <c r="I57" s="45">
         <f>SQRT('Forces Input '!S22^2+'Forces Input '!T22^2)*B43*B44</f>
         <v>2199.6699285269669</v>
       </c>
-      <c r="J57" s="78">
+      <c r="J57" s="45">
         <f t="shared" si="6"/>
         <v>0.57597034906782918</v>
       </c>
-      <c r="K57" s="78">
+      <c r="K57" s="45">
         <f t="shared" si="7"/>
         <v>0.82162074121072259</v>
       </c>
-      <c r="L57" s="78">
+      <c r="L57" s="45">
         <f t="shared" si="8"/>
         <v>2.8705324633614788</v>
       </c>
-      <c r="M57" s="78">
+      <c r="M57" s="45">
         <f t="shared" si="9"/>
         <v>-0.29874078508998025</v>
       </c>
-      <c r="N57" s="78">
+      <c r="N57" s="45">
         <f>1/(SQRT(      (((I57*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H57*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.55295730571443702</v>
       </c>
-      <c r="O57" s="79">
+      <c r="O57" s="70">
         <f>1/(SQRT(      (((I57*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H57*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.77373135900790446</v>
       </c>
@@ -10376,36 +10400,36 @@
       <c r="F58" s="18">
         <v>2</v>
       </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="58">
+      <c r="G58" s="56"/>
+      <c r="H58" s="40">
         <f>'Forces Input '!R23*B43*B44</f>
         <v>2540.1373800000001</v>
       </c>
-      <c r="I58" s="60">
+      <c r="I58" s="40">
         <f>SQRT('Forces Input '!S23^2+'Forces Input '!T23^2)*B43*B44</f>
         <v>2199.6739174983941</v>
       </c>
-      <c r="J58" s="77">
+      <c r="J58" s="40">
         <f t="shared" si="6"/>
         <v>0.57597039473882461</v>
       </c>
-      <c r="K58" s="77">
+      <c r="K58" s="40">
         <f t="shared" si="7"/>
         <v>0.82162081498743111</v>
       </c>
-      <c r="L58" s="77">
+      <c r="L58" s="40">
         <f t="shared" si="8"/>
         <v>2.8705581080615925</v>
       </c>
-      <c r="M58" s="77">
+      <c r="M58" s="40">
         <f t="shared" si="9"/>
         <v>-0.29874100529539804</v>
       </c>
-      <c r="N58" s="77">
+      <c r="N58" s="40">
         <f t="shared" ref="N58:N68" si="12">1/(SQRT(      (((I58*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H58*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.55295726776742171</v>
       </c>
-      <c r="O58" s="80">
+      <c r="O58" s="71">
         <f t="shared" ref="O58:O68" si="13">1/(SQRT(      (((I58*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H58*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.77373126021758321</v>
       </c>
@@ -10414,36 +10438,36 @@
       <c r="F59" s="18">
         <v>3</v>
       </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="58">
+      <c r="G59" s="56"/>
+      <c r="H59" s="40">
         <f>'Forces Input '!R24*B43*B44</f>
         <v>6571.0061999999998</v>
       </c>
-      <c r="I59" s="60">
+      <c r="I59" s="40">
         <f>SQRT('Forces Input '!S24^2+'Forces Input '!T24^2)*B43*B44</f>
         <v>1310.206097083571</v>
       </c>
-      <c r="J59" s="77">
+      <c r="J59" s="40">
         <f t="shared" si="6"/>
         <v>0.56510736130625916</v>
       </c>
-      <c r="K59" s="77">
+      <c r="K59" s="40">
         <f t="shared" si="7"/>
         <v>0.80412067803439213</v>
       </c>
-      <c r="L59" s="77">
+      <c r="L59" s="40">
         <f t="shared" si="8"/>
         <v>0.49623193655628128</v>
       </c>
-      <c r="M59" s="77">
+      <c r="M59" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547399167596051</v>
       </c>
-      <c r="N59" s="77">
+      <c r="N59" s="40">
         <f t="shared" si="12"/>
         <v>0.55699524207739359</v>
       </c>
-      <c r="O59" s="80">
+      <c r="O59" s="71">
         <f t="shared" si="13"/>
         <v>0.78718236704481592</v>
       </c>
@@ -10452,36 +10476,36 @@
       <c r="F60" s="18">
         <v>4</v>
       </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="58">
+      <c r="G60" s="56"/>
+      <c r="H60" s="40">
         <f>'Forces Input '!R25*B43*B44</f>
         <v>2791.1908199999998</v>
       </c>
-      <c r="I60" s="60">
+      <c r="I60" s="40">
         <f>SQRT('Forces Input '!S25^2+'Forces Input '!T25^2)*B43*B44</f>
         <v>4015.2235629088764</v>
       </c>
-      <c r="J60" s="77">
+      <c r="J60" s="40">
         <f t="shared" si="6"/>
         <v>0.57528941396852118</v>
       </c>
-      <c r="K60" s="77">
+      <c r="K60" s="40">
         <f t="shared" si="7"/>
         <v>0.82052095081280307</v>
       </c>
-      <c r="L60" s="77">
+      <c r="L60" s="40">
         <f t="shared" si="8"/>
         <v>2.5224210617564777</v>
       </c>
-      <c r="M60" s="77">
+      <c r="M60" s="40">
         <f t="shared" si="9"/>
         <v>-0.6244196167849464</v>
       </c>
-      <c r="N60" s="77">
+      <c r="N60" s="40">
         <f t="shared" si="12"/>
         <v>0.5023903833467962</v>
       </c>
-      <c r="O60" s="80">
+      <c r="O60" s="71">
         <f t="shared" si="13"/>
         <v>0.67441383441419878</v>
       </c>
@@ -10490,36 +10514,36 @@
       <c r="F61" s="18">
         <v>5</v>
       </c>
-      <c r="G61" s="54"/>
-      <c r="H61" s="58">
+      <c r="G61" s="56"/>
+      <c r="H61" s="40">
         <f>'Forces Input '!R26*B43*B44</f>
         <v>6571.0127999999995</v>
       </c>
-      <c r="I61" s="60">
+      <c r="I61" s="40">
         <f>SQRT('Forces Input '!S26^2+'Forces Input '!T26^2)*B43*B44</f>
         <v>1310.2069470315751</v>
       </c>
-      <c r="J61" s="77">
+      <c r="J61" s="40">
         <f t="shared" si="6"/>
         <v>0.56510734364212056</v>
       </c>
-      <c r="K61" s="77">
+      <c r="K61" s="40">
         <f t="shared" si="7"/>
         <v>0.80412064965557306</v>
       </c>
-      <c r="L61" s="77">
+      <c r="L61" s="40">
         <f t="shared" si="8"/>
         <v>0.49623043372390518</v>
       </c>
-      <c r="M61" s="77">
+      <c r="M61" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547517342549219</v>
       </c>
-      <c r="N61" s="77">
+      <c r="N61" s="40">
         <f t="shared" si="12"/>
         <v>0.55699521424330434</v>
       </c>
-      <c r="O61" s="80">
+      <c r="O61" s="71">
         <f t="shared" si="13"/>
         <v>0.78718231779013959</v>
       </c>
@@ -10528,36 +10552,36 @@
       <c r="F62" s="18">
         <v>6</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="58">
+      <c r="G62" s="56"/>
+      <c r="H62" s="40">
         <f>'Forces Input '!R27*B43*B44</f>
         <v>2791.24098</v>
       </c>
-      <c r="I62" s="60">
+      <c r="I62" s="40">
         <f>SQRT('Forces Input '!S27^2+'Forces Input '!T27^2)*B43*B44</f>
         <v>4015.2328832656999</v>
       </c>
-      <c r="J62" s="77">
+      <c r="J62" s="40">
         <f t="shared" si="6"/>
         <v>0.57528927796866092</v>
       </c>
-      <c r="K62" s="77">
+      <c r="K62" s="40">
         <f t="shared" si="7"/>
         <v>0.82052073119474045</v>
       </c>
-      <c r="L62" s="77">
+      <c r="L62" s="40">
         <f t="shared" si="8"/>
         <v>2.5223577620837783</v>
       </c>
-      <c r="M62" s="77">
+      <c r="M62" s="40">
         <f t="shared" si="9"/>
         <v>-0.62442220541694671</v>
       </c>
-      <c r="N62" s="77">
+      <c r="N62" s="40">
         <f t="shared" si="12"/>
         <v>0.50238995006287479</v>
       </c>
-      <c r="O62" s="80">
+      <c r="O62" s="71">
         <f t="shared" si="13"/>
         <v>0.67441306471100626</v>
       </c>
@@ -10566,36 +10590,36 @@
       <c r="F63" s="18">
         <v>7</v>
       </c>
-      <c r="G63" s="54"/>
-      <c r="H63" s="58">
+      <c r="G63" s="56"/>
+      <c r="H63" s="40">
         <f>'Forces Input '!R28*B43*B44</f>
         <v>2791.24593</v>
       </c>
-      <c r="I63" s="60">
+      <c r="I63" s="40">
         <f>SQRT('Forces Input '!S28^2+'Forces Input '!T28^2)*B43*B44</f>
         <v>4015.2272469094273</v>
       </c>
-      <c r="J63" s="77">
+      <c r="J63" s="40">
         <f t="shared" si="6"/>
         <v>0.5752892645476233</v>
       </c>
-      <c r="K63" s="77">
+      <c r="K63" s="40">
         <f t="shared" si="7"/>
         <v>0.82052070952190825</v>
       </c>
-      <c r="L63" s="77">
+      <c r="L63" s="40">
         <f t="shared" si="8"/>
         <v>2.5223515155288849</v>
       </c>
-      <c r="M63" s="77">
+      <c r="M63" s="40">
         <f t="shared" si="9"/>
         <v>-0.62442184762428854</v>
       </c>
-      <c r="N63" s="77">
+      <c r="N63" s="40">
         <f t="shared" si="12"/>
         <v>0.50239012909634129</v>
       </c>
-      <c r="O63" s="80">
+      <c r="O63" s="71">
         <f t="shared" si="13"/>
         <v>0.67441340998398469</v>
       </c>
@@ -10604,36 +10628,36 @@
       <c r="F64" s="18">
         <v>8</v>
       </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="58">
+      <c r="G64" s="56"/>
+      <c r="H64" s="40">
         <f>'Forces Input '!R29*B43*B44</f>
         <v>6571.0391999999993</v>
       </c>
-      <c r="I64" s="60">
+      <c r="I64" s="40">
         <f>SQRT('Forces Input '!S29^2+'Forces Input '!T29^2)*B43*B44</f>
         <v>1310.2033218999645</v>
       </c>
-      <c r="J64" s="77">
+      <c r="J64" s="40">
         <f t="shared" si="6"/>
         <v>0.56510727298557062</v>
       </c>
-      <c r="K64" s="77">
+      <c r="K64" s="40">
         <f t="shared" si="7"/>
         <v>0.80412053614030699</v>
       </c>
-      <c r="L64" s="77">
+      <c r="L64" s="40">
         <f t="shared" si="8"/>
         <v>0.49622442242458931</v>
       </c>
-      <c r="M64" s="77">
+      <c r="M64" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547585489413981</v>
       </c>
-      <c r="N64" s="77">
+      <c r="N64" s="40">
         <f t="shared" si="12"/>
         <v>0.55699518922117641</v>
       </c>
-      <c r="O64" s="80">
+      <c r="O64" s="71">
         <f t="shared" si="13"/>
         <v>0.78718229985747334</v>
       </c>
@@ -10642,36 +10666,36 @@
       <c r="F65" s="18">
         <v>9</v>
       </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="58">
+      <c r="G65" s="56"/>
+      <c r="H65" s="40">
         <f>'Forces Input '!R30*B43*B44</f>
         <v>2791.1918100000003</v>
       </c>
-      <c r="I65" s="60">
+      <c r="I65" s="40">
         <f>SQRT('Forces Input '!S30^2+'Forces Input '!T30^2)*B43*B44</f>
         <v>4015.212472416074</v>
       </c>
-      <c r="J65" s="77">
+      <c r="J65" s="40">
         <f t="shared" si="6"/>
         <v>0.57528941128431321</v>
       </c>
-      <c r="K65" s="77">
+      <c r="K65" s="40">
         <f t="shared" si="7"/>
         <v>0.8205209464782357</v>
       </c>
-      <c r="L65" s="77">
+      <c r="L65" s="40">
         <f t="shared" si="8"/>
         <v>2.5224198123988231</v>
       </c>
-      <c r="M65" s="77">
+      <c r="M65" s="40">
         <f t="shared" si="9"/>
         <v>-0.62441861327211146</v>
       </c>
-      <c r="N65" s="77">
+      <c r="N65" s="40">
         <f t="shared" si="12"/>
         <v>0.50239075620539975</v>
       </c>
-      <c r="O65" s="80">
+      <c r="O65" s="71">
         <f t="shared" si="13"/>
         <v>0.67441454360376363</v>
       </c>
@@ -10680,36 +10704,36 @@
       <c r="F66" s="18">
         <v>10</v>
       </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="58">
+      <c r="G66" s="56"/>
+      <c r="H66" s="40">
         <f>'Forces Input '!R31*B43*B44</f>
         <v>6571.0391999999993</v>
       </c>
-      <c r="I66" s="60">
+      <c r="I66" s="40">
         <f>SQRT('Forces Input '!S31^2+'Forces Input '!T31^2)*B43*B44</f>
         <v>1310.2028067877436</v>
       </c>
-      <c r="J66" s="77">
+      <c r="J66" s="40">
         <f t="shared" si="6"/>
         <v>0.56510727298557062</v>
       </c>
-      <c r="K66" s="77">
+      <c r="K66" s="40">
         <f t="shared" si="7"/>
         <v>0.80412053614030699</v>
       </c>
-      <c r="L66" s="77">
+      <c r="L66" s="40">
         <f t="shared" si="8"/>
         <v>0.49622442242458931</v>
       </c>
-      <c r="M66" s="77">
+      <c r="M66" s="40">
         <f t="shared" si="9"/>
         <v>-0.24547555824952416</v>
       </c>
-      <c r="N66" s="77">
+      <c r="N66" s="40">
         <f t="shared" si="12"/>
         <v>0.55699519555027277</v>
       </c>
-      <c r="O66" s="80">
+      <c r="O66" s="71">
         <f t="shared" si="13"/>
         <v>0.7871823129891764</v>
       </c>
@@ -10718,36 +10742,36 @@
       <c r="F67" s="18">
         <v>11</v>
       </c>
-      <c r="G67" s="54"/>
-      <c r="H67" s="58">
+      <c r="G67" s="56"/>
+      <c r="H67" s="40">
         <f>'Forces Input '!R32*B43*B44</f>
         <v>2540.1443100000001</v>
       </c>
-      <c r="I67" s="60">
+      <c r="I67" s="40">
         <f>SQRT('Forces Input '!S32^2+'Forces Input '!T32^2)*B43*B44</f>
         <v>2199.6780189435467</v>
       </c>
-      <c r="J67" s="77">
+      <c r="J67" s="40">
         <f t="shared" si="6"/>
         <v>0.57597037593312028</v>
       </c>
-      <c r="K67" s="77">
+      <c r="K67" s="40">
         <f t="shared" si="7"/>
         <v>0.82162078460878574</v>
       </c>
-      <c r="L67" s="77">
+      <c r="L67" s="40">
         <f t="shared" si="8"/>
         <v>2.8705475484380383</v>
       </c>
-      <c r="M67" s="77">
+      <c r="M67" s="40">
         <f t="shared" si="9"/>
         <v>-0.29874274580254112</v>
       </c>
-      <c r="N67" s="77">
+      <c r="N67" s="40">
         <f t="shared" si="12"/>
         <v>0.55295716582496768</v>
       </c>
-      <c r="O67" s="80">
+      <c r="O67" s="71">
         <f t="shared" si="13"/>
         <v>0.77373106056620999</v>
       </c>
@@ -10756,76 +10780,76 @@
       <c r="F68" s="17">
         <v>12</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="72">
+      <c r="G68" s="57"/>
+      <c r="H68" s="46">
         <f>'Forces Input '!R33*B43*B44</f>
         <v>2540.1621300000002</v>
       </c>
-      <c r="I68" s="62">
+      <c r="I68" s="46">
         <f>SQRT('Forces Input '!S33^2+'Forces Input '!T33^2)*B43*B44</f>
         <v>2199.6732122750391</v>
       </c>
-      <c r="J68" s="55">
+      <c r="J68" s="46">
         <f t="shared" si="6"/>
         <v>0.57597032757559696</v>
       </c>
-      <c r="K68" s="55">
+      <c r="K68" s="46">
         <f t="shared" si="7"/>
         <v>0.82162070649227337</v>
       </c>
-      <c r="L68" s="55">
+      <c r="L68" s="46">
         <f t="shared" si="8"/>
         <v>2.8705203953848928</v>
       </c>
-      <c r="M68" s="55">
+      <c r="M68" s="46">
         <f t="shared" si="9"/>
         <v>-0.29874232677029067</v>
       </c>
-      <c r="N68" s="55">
+      <c r="N68" s="46">
         <f t="shared" si="12"/>
         <v>0.55295721793823005</v>
       </c>
-      <c r="O68" s="56">
+      <c r="O68" s="72">
         <f t="shared" si="13"/>
         <v>0.7737311895631156</v>
       </c>
     </row>
     <row r="69" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F69" s="67">
+      <c r="F69" s="44">
         <v>1</v>
       </c>
-      <c r="G69" s="68" t="s">
+      <c r="G69" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H69" s="73">
+      <c r="H69" s="45">
         <f>ABS('Forces Input '!C22)*B43*B44</f>
         <v>1520.13939</v>
       </c>
-      <c r="I69" s="73">
+      <c r="I69" s="45">
         <f>SQRT('Forces Input '!D22^2+'Forces Input '!E22^2)*B43*B44</f>
         <v>191.65146072099321</v>
       </c>
-      <c r="J69" s="78">
+      <c r="J69" s="45">
         <f t="shared" si="6"/>
         <v>0.5787431984443594</v>
       </c>
-      <c r="K69" s="78">
+      <c r="K69" s="45">
         <f t="shared" si="7"/>
         <v>0.82610312420791243</v>
       </c>
-      <c r="L69" s="78">
+      <c r="L69" s="45">
         <f t="shared" si="8"/>
         <v>5.4676630290787562</v>
       </c>
-      <c r="M69" s="78">
+      <c r="M69" s="45">
         <f t="shared" si="9"/>
         <v>7.780094763474187</v>
       </c>
-      <c r="N69" s="78">
+      <c r="N69" s="45">
         <f>1/(SQRT(      (((I69*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H69*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.57856368619163345</v>
       </c>
-      <c r="O69" s="79">
+      <c r="O69" s="70">
         <f>1/(SQRT(      (((I69*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H69*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.82572205116864761</v>
       </c>
@@ -10834,36 +10858,36 @@
       <c r="F70" s="18">
         <v>2</v>
       </c>
-      <c r="G70" s="54"/>
-      <c r="H70" s="60">
+      <c r="G70" s="56"/>
+      <c r="H70" s="40">
         <f>ABS('Forces Input '!C23)*B43*B44</f>
         <v>1520.17173</v>
       </c>
-      <c r="I70" s="60">
+      <c r="I70" s="40">
         <f>SQRT('Forces Input '!D23^2+'Forces Input '!E23^2)*B43*B44</f>
         <v>191.63911675774784</v>
       </c>
-      <c r="J70" s="77">
+      <c r="J70" s="40">
         <f t="shared" si="6"/>
         <v>0.578743110375324</v>
       </c>
-      <c r="K70" s="77">
+      <c r="K70" s="40">
         <f t="shared" si="7"/>
         <v>0.82610298174238239</v>
       </c>
-      <c r="L70" s="77">
+      <c r="L70" s="40">
         <f t="shared" si="8"/>
         <v>5.4675254365829664</v>
       </c>
-      <c r="M70" s="77">
+      <c r="M70" s="40">
         <f t="shared" si="9"/>
         <v>7.7806371200077056</v>
       </c>
-      <c r="N70" s="77">
+      <c r="N70" s="40">
         <f t="shared" ref="N70:N80" si="14">1/(SQRT(      (((I70*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H70*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.57856362127213745</v>
       </c>
-      <c r="O70" s="80">
+      <c r="O70" s="71">
         <f t="shared" ref="O70:O80" si="15">1/(SQRT(      (((I70*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H70*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.82572195786394054</v>
       </c>
@@ -10872,36 +10896,36 @@
       <c r="F71" s="18">
         <v>3</v>
       </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="60">
+      <c r="G71" s="56"/>
+      <c r="H71" s="40">
         <f>ABS('Forces Input '!C24)*B43*B44</f>
         <v>2496.5354699999998</v>
       </c>
-      <c r="I71" s="60">
+      <c r="I71" s="40">
         <f>SQRT('Forces Input '!D24^2+'Forces Input '!E24^2)*B43*B44</f>
         <v>531.71598274262885</v>
       </c>
-      <c r="J71" s="77">
+      <c r="J71" s="40">
         <f t="shared" si="6"/>
         <v>0.57608872463773819</v>
       </c>
-      <c r="K71" s="77">
+      <c r="K71" s="40">
         <f t="shared" si="7"/>
         <v>0.82181197025222152</v>
       </c>
-      <c r="L71" s="77">
+      <c r="L71" s="40">
         <f t="shared" si="8"/>
         <v>2.9381572783139078</v>
       </c>
-      <c r="M71" s="77">
+      <c r="M71" s="40">
         <f t="shared" si="9"/>
         <v>1.9123316178653686</v>
       </c>
-      <c r="N71" s="77">
+      <c r="N71" s="40">
         <f t="shared" si="14"/>
         <v>0.57471549564858559</v>
       </c>
-      <c r="O71" s="80">
+      <c r="O71" s="71">
         <f t="shared" si="15"/>
         <v>0.8189054468674406</v>
       </c>
@@ -10910,36 +10934,36 @@
       <c r="F72" s="18">
         <v>4</v>
       </c>
-      <c r="G72" s="54"/>
-      <c r="H72" s="60">
+      <c r="G72" s="56"/>
+      <c r="H72" s="40">
         <f>ABS('Forces Input '!C25)*B43*B44</f>
         <v>2496.6562500000005</v>
       </c>
-      <c r="I72" s="60">
+      <c r="I72" s="40">
         <f>SQRT('Forces Input '!D25^2+'Forces Input '!E25^2)*B43*B44</f>
         <v>531.75415910591278</v>
       </c>
-      <c r="J72" s="77">
+      <c r="J72" s="40">
         <f t="shared" si="6"/>
         <v>0.57608839683202251</v>
       </c>
-      <c r="K72" s="77">
+      <c r="K72" s="40">
         <f t="shared" si="7"/>
         <v>0.82181144068484868</v>
       </c>
-      <c r="L72" s="77">
+      <c r="L72" s="40">
         <f t="shared" si="8"/>
         <v>2.9379667632455737</v>
       </c>
-      <c r="M72" s="77">
+      <c r="M72" s="40">
         <f t="shared" si="9"/>
         <v>1.9120913172480321</v>
       </c>
-      <c r="N72" s="77">
+      <c r="N72" s="40">
         <f t="shared" si="14"/>
         <v>0.57471497175837305</v>
       </c>
-      <c r="O72" s="80">
+      <c r="O72" s="71">
         <f t="shared" si="15"/>
         <v>0.81890450344694754</v>
       </c>
@@ -10948,36 +10972,36 @@
       <c r="F73" s="18">
         <v>5</v>
       </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="60">
+      <c r="G73" s="56"/>
+      <c r="H73" s="40">
         <f>ABS('Forces Input '!C26)*B43*B44</f>
         <v>2496.5622000000003</v>
       </c>
-      <c r="I73" s="60">
+      <c r="I73" s="40">
         <f>SQRT('Forces Input '!D26^2+'Forces Input '!E26^2)*B43*B44</f>
         <v>531.72979042765166</v>
       </c>
-      <c r="J73" s="77">
+      <c r="J73" s="40">
         <f t="shared" si="6"/>
         <v>0.57608865209055993</v>
       </c>
-      <c r="K73" s="77">
+      <c r="K73" s="40">
         <f t="shared" si="7"/>
         <v>0.82181185305285842</v>
       </c>
-      <c r="L73" s="77">
+      <c r="L73" s="40">
         <f t="shared" si="8"/>
         <v>2.9381151135546837</v>
       </c>
-      <c r="M73" s="77">
+      <c r="M73" s="40">
         <f t="shared" si="9"/>
         <v>1.9122490834199306</v>
       </c>
-      <c r="N73" s="77">
+      <c r="N73" s="40">
         <f t="shared" si="14"/>
         <v>0.57471535206268798</v>
       </c>
-      <c r="O73" s="80">
+      <c r="O73" s="71">
         <f t="shared" si="15"/>
         <v>0.81890517963315212</v>
       </c>
@@ -10986,36 +11010,36 @@
       <c r="F74" s="18">
         <v>6</v>
       </c>
-      <c r="G74" s="54"/>
-      <c r="H74" s="60">
+      <c r="G74" s="56"/>
+      <c r="H74" s="40">
         <f>ABS('Forces Input '!C27)*B43*B44</f>
         <v>2496.6301800000001</v>
       </c>
-      <c r="I74" s="60">
+      <c r="I74" s="40">
         <f>SQRT('Forces Input '!D27^2+'Forces Input '!E27^2)*B43*B44</f>
         <v>531.72609439887481</v>
       </c>
-      <c r="J74" s="77">
+      <c r="J74" s="40">
         <f t="shared" si="6"/>
         <v>0.57608846758788945</v>
       </c>
-      <c r="K74" s="77">
+      <c r="K74" s="40">
         <f t="shared" si="7"/>
         <v>0.82181155499034864</v>
       </c>
-      <c r="L74" s="77">
+      <c r="L74" s="40">
         <f t="shared" si="8"/>
         <v>2.9380078837905144</v>
       </c>
-      <c r="M74" s="77">
+      <c r="M74" s="40">
         <f t="shared" si="9"/>
         <v>1.9122517565295385</v>
       </c>
-      <c r="N74" s="77">
+      <c r="N74" s="40">
         <f t="shared" si="14"/>
         <v>0.57471518710835778</v>
       </c>
-      <c r="O74" s="80">
+      <c r="O74" s="71">
         <f t="shared" si="15"/>
         <v>0.81890492330651687</v>
       </c>
@@ -11024,36 +11048,36 @@
       <c r="F75" s="18">
         <v>7</v>
       </c>
-      <c r="G75" s="54"/>
-      <c r="H75" s="60">
+      <c r="G75" s="56"/>
+      <c r="H75" s="40">
         <f>ABS('Forces Input '!C28)*B43*B44</f>
         <v>2496.5384400000003</v>
       </c>
-      <c r="I75" s="60">
+      <c r="I75" s="40">
         <f>SQRT('Forces Input '!D28^2+'Forces Input '!E28^2)*B43*B44</f>
         <v>531.71413159460758</v>
       </c>
-      <c r="J75" s="77">
+      <c r="J75" s="40">
         <f t="shared" si="6"/>
         <v>0.57608871657694016</v>
       </c>
-      <c r="K75" s="77">
+      <c r="K75" s="40">
         <f t="shared" si="7"/>
         <v>0.82181195723006928</v>
       </c>
-      <c r="L75" s="77">
+      <c r="L75" s="40">
         <f t="shared" si="8"/>
         <v>2.9381525932960724</v>
       </c>
-      <c r="M75" s="77">
+      <c r="M75" s="40">
         <f t="shared" si="9"/>
         <v>1.9123409894313248</v>
       </c>
-      <c r="N75" s="77">
+      <c r="N75" s="40">
         <f t="shared" si="14"/>
         <v>0.57471549715801373</v>
       </c>
-      <c r="O75" s="80">
+      <c r="O75" s="71">
         <f t="shared" si="15"/>
         <v>0.8189054540969658</v>
       </c>
@@ -11062,36 +11086,36 @@
       <c r="F76" s="18">
         <v>8</v>
       </c>
-      <c r="G76" s="54"/>
-      <c r="H76" s="60">
+      <c r="G76" s="56"/>
+      <c r="H76" s="40">
         <f>ABS('Forces Input '!C29)*B43*B44</f>
         <v>2496.6615300000003</v>
       </c>
-      <c r="I76" s="60">
+      <c r="I76" s="40">
         <f>SQRT('Forces Input '!D29^2+'Forces Input '!E29^2)*B43*B44</f>
         <v>531.75490972276157</v>
       </c>
-      <c r="J76" s="77">
+      <c r="J76" s="40">
         <f t="shared" si="6"/>
         <v>0.57608838250172112</v>
       </c>
-      <c r="K76" s="77">
+      <c r="K76" s="40">
         <f t="shared" si="7"/>
         <v>0.82181141753436959</v>
       </c>
-      <c r="L76" s="77">
+      <c r="L76" s="40">
         <f t="shared" si="8"/>
         <v>2.9379584351385151</v>
       </c>
-      <c r="M76" s="77">
+      <c r="M76" s="40">
         <f t="shared" si="9"/>
         <v>1.9120858420044344</v>
       </c>
-      <c r="N76" s="77">
+      <c r="N76" s="40">
         <f t="shared" si="14"/>
         <v>0.57471495359315039</v>
       </c>
-      <c r="O76" s="80">
+      <c r="O76" s="71">
         <f t="shared" si="15"/>
         <v>0.81890447221995211</v>
       </c>
@@ -11100,36 +11124,36 @@
       <c r="F77" s="18">
         <v>9</v>
       </c>
-      <c r="G77" s="54"/>
-      <c r="H77" s="60">
+      <c r="G77" s="56"/>
+      <c r="H77" s="40">
         <f>ABS('Forces Input '!C30)*B43*B44</f>
         <v>2496.5641800000003</v>
       </c>
-      <c r="I77" s="60">
+      <c r="I77" s="40">
         <f>SQRT('Forces Input '!D30^2+'Forces Input '!E30^2)*B43*B44</f>
         <v>531.73501095790675</v>
       </c>
-      <c r="J77" s="77">
+      <c r="J77" s="40">
         <f t="shared" si="6"/>
         <v>0.57608864671669502</v>
       </c>
-      <c r="K77" s="77">
+      <c r="K77" s="40">
         <f t="shared" si="7"/>
         <v>0.82181184437142485</v>
       </c>
-      <c r="L77" s="77">
+      <c r="L77" s="40">
         <f t="shared" si="8"/>
         <v>2.9381119902751034</v>
       </c>
-      <c r="M77" s="77">
+      <c r="M77" s="40">
         <f t="shared" si="9"/>
         <v>1.9122199794626908</v>
       </c>
-      <c r="N77" s="77">
+      <c r="N77" s="40">
         <f t="shared" si="14"/>
         <v>0.57471531977180512</v>
       </c>
-      <c r="O77" s="80">
+      <c r="O77" s="71">
         <f t="shared" si="15"/>
         <v>0.81890511405393385</v>
       </c>
@@ -11138,36 +11162,36 @@
       <c r="F78" s="18">
         <v>10</v>
       </c>
-      <c r="G78" s="54"/>
-      <c r="H78" s="60">
+      <c r="G78" s="56"/>
+      <c r="H78" s="40">
         <f>ABS('Forces Input '!C31)*B43*B44</f>
         <v>2496.6371100000001</v>
       </c>
-      <c r="I78" s="60">
+      <c r="I78" s="40">
         <f>SQRT('Forces Input '!D31^2+'Forces Input '!E31^2)*B43*B44</f>
         <v>531.73691315943825</v>
       </c>
-      <c r="J78" s="77">
+      <c r="J78" s="40">
         <f t="shared" si="6"/>
         <v>0.57608844877936716</v>
       </c>
-      <c r="K78" s="77">
+      <c r="K78" s="40">
         <f t="shared" si="7"/>
         <v>0.82181152460534079</v>
       </c>
-      <c r="L78" s="77">
+      <c r="L78" s="40">
         <f t="shared" si="8"/>
         <v>2.9379969529289465</v>
       </c>
-      <c r="M78" s="77">
+      <c r="M78" s="40">
         <f t="shared" si="9"/>
         <v>1.912190712555252</v>
       </c>
-      <c r="N78" s="77">
+      <c r="N78" s="40">
         <f t="shared" si="14"/>
         <v>0.57471511253853191</v>
       </c>
-      <c r="O78" s="80">
+      <c r="O78" s="71">
         <f t="shared" si="15"/>
         <v>0.81890477506892867</v>
       </c>
@@ -11176,36 +11200,36 @@
       <c r="F79" s="18">
         <v>11</v>
       </c>
-      <c r="G79" s="54"/>
-      <c r="H79" s="60">
+      <c r="G79" s="56"/>
+      <c r="H79" s="40">
         <f>ABS('Forces Input '!C32)*B43*B44</f>
         <v>1520.1565500000002</v>
       </c>
-      <c r="I79" s="60">
+      <c r="I79" s="40">
         <f>SQRT('Forces Input '!D32^2+'Forces Input '!E32^2)*B43*B44</f>
         <v>191.64364366356071</v>
       </c>
-      <c r="J79" s="77">
+      <c r="J79" s="40">
         <f t="shared" si="6"/>
         <v>0.57874315171384971</v>
       </c>
-      <c r="K79" s="77">
+      <c r="K79" s="40">
         <f t="shared" si="7"/>
         <v>0.82610304861395512</v>
       </c>
-      <c r="L79" s="77">
+      <c r="L79" s="40">
         <f t="shared" si="8"/>
         <v>5.4675900200866359</v>
       </c>
-      <c r="M79" s="77">
+      <c r="M79" s="40">
         <f t="shared" si="9"/>
         <v>7.7804405940453272</v>
       </c>
-      <c r="N79" s="77">
+      <c r="N79" s="40">
         <f t="shared" si="14"/>
         <v>0.57856365411811472</v>
       </c>
-      <c r="O79" s="80">
+      <c r="O79" s="71">
         <f t="shared" si="15"/>
         <v>0.82572200669796403</v>
       </c>
@@ -11214,77 +11238,77 @@
       <c r="F80" s="17">
         <v>12</v>
       </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="62">
+      <c r="G80" s="57"/>
+      <c r="H80" s="46">
         <f>ABS('Forces Input '!C33)*B43*B44</f>
         <v>1520.1575400000002</v>
       </c>
-      <c r="I80" s="62">
+      <c r="I80" s="46">
         <f>SQRT('Forces Input '!D33^2+'Forces Input '!E33^2)*B43*B44</f>
         <v>191.64350364849105</v>
       </c>
-      <c r="J80" s="55">
+      <c r="J80" s="46">
         <f t="shared" si="6"/>
         <v>0.57874314901785873</v>
       </c>
-      <c r="K80" s="55">
+      <c r="K80" s="46">
         <f t="shared" si="7"/>
         <v>0.82610304425276526</v>
       </c>
-      <c r="L80" s="55">
+      <c r="L80" s="46">
         <f t="shared" si="8"/>
         <v>5.4675858080796882</v>
       </c>
-      <c r="M80" s="55">
+      <c r="M80" s="46">
         <f t="shared" si="9"/>
         <v>7.780446299115912</v>
       </c>
-      <c r="N80" s="55">
+      <c r="N80" s="46">
         <f t="shared" si="14"/>
         <v>0.57856365168528079</v>
       </c>
-      <c r="O80" s="56">
+      <c r="O80" s="72">
         <f t="shared" si="15"/>
         <v>0.82572200289610831</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="74"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="74"/>
-      <c r="P82" s="74"/>
-      <c r="Q82" s="74"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="74"/>
-      <c r="L83" s="74"/>
-      <c r="M83" s="74"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="74"/>
-      <c r="P83" s="74"/>
-      <c r="Q83" s="74"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
     </row>
     <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -11292,7 +11316,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B85">
@@ -11302,23 +11326,23 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="42" t="s">
+      <c r="J85" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="K85" s="43"/>
+      <c r="K85" s="62"/>
       <c r="L85" s="24" t="s">
         <v>75</v>
       </c>
       <c r="M85" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N85" s="42" t="s">
+      <c r="N85" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="O85" s="44"/>
+      <c r="O85" s="63"/>
     </row>
     <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B86">
@@ -11327,73 +11351,73 @@
       <c r="C86" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="65" t="s">
+      <c r="F86" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="50" t="s">
+      <c r="G86" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="50" t="s">
+      <c r="H86" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="50" t="s">
+      <c r="I86" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J86" s="50" t="s">
+      <c r="J86" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="50" t="s">
+      <c r="K86" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="50" t="s">
+      <c r="L86" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="M86" s="50" t="s">
+      <c r="M86" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="N86" s="50" t="s">
+      <c r="N86" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="O86" s="66" t="s">
+      <c r="O86" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F87" s="67">
+      <c r="F87" s="44">
         <v>1</v>
       </c>
-      <c r="G87" s="68" t="s">
+      <c r="G87" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="69">
+      <c r="H87" s="45">
         <f>'Forces Input '!AG40*B85</f>
         <v>1382.6780000000001</v>
       </c>
-      <c r="I87" s="69">
+      <c r="I87" s="45">
         <f>SQRT('Forces Input '!AH40^2+'Forces Input '!AI40^2)*B85</f>
         <v>738.04900772268388</v>
       </c>
-      <c r="J87" s="70">
+      <c r="J87" s="73">
         <f t="shared" ref="J87:J122" si="16" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H87*$D$4) ) ) -1</f>
         <v>0.57911762527952826</v>
       </c>
-      <c r="K87" s="70">
+      <c r="K87" s="73">
         <f t="shared" ref="K87:K122" si="17" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H87*$D$5) ) ) -1</f>
         <v>0.82670887583294217</v>
       </c>
-      <c r="L87" s="70">
+      <c r="L87" s="73">
         <f t="shared" ref="L87:L122" si="18" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H87*$D$5) ) -1</f>
         <v>6.1106572403331301</v>
       </c>
-      <c r="M87" s="70">
+      <c r="M87" s="73">
         <f t="shared" ref="M87:M122" si="19" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H87)*$D$6) / (I87*$D$5) ) -1</f>
         <v>1.3055502972537343</v>
       </c>
-      <c r="N87" s="70">
+      <c r="N87" s="73">
         <f>1/(SQRT(      (((I87*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H87*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.57645980414221776</v>
       </c>
-      <c r="O87" s="71">
+      <c r="O87" s="74">
         <f>1/(SQRT(      (((I87*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H87*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.82107626028821423</v>
       </c>
@@ -11402,36 +11426,36 @@
       <c r="F88" s="18">
         <v>2</v>
       </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="58">
+      <c r="G88" s="56"/>
+      <c r="H88" s="40">
         <f>'Forces Input '!AG41*B85</f>
         <v>1382.6703</v>
       </c>
-      <c r="I88" s="58">
+      <c r="I88" s="40">
         <f>SQRT('Forces Input '!AH41^2+'Forces Input '!AI41^2)*B85</f>
         <v>738.05605071136563</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="41">
         <f t="shared" si="16"/>
         <v>0.5791176462582952</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="41">
         <f t="shared" si="17"/>
         <v>0.82670890977581757</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="41">
         <f t="shared" si="18"/>
         <v>6.1106968391158274</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="41">
         <f t="shared" si="19"/>
         <v>1.3055297300290172</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="41">
         <f t="shared" ref="N88:N98" si="20">1/(SQRT(      (((I88*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H88*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.57645977441734608</v>
       </c>
-      <c r="O88" s="53">
+      <c r="O88" s="67">
         <f t="shared" ref="O88:O98" si="21">1/(SQRT(      (((I88*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H88*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.82107618691341799</v>
       </c>
@@ -11440,36 +11464,36 @@
       <c r="F89" s="18">
         <v>3</v>
       </c>
-      <c r="G89" s="54"/>
-      <c r="H89" s="58">
+      <c r="G89" s="56"/>
+      <c r="H89" s="40">
         <f>'Forces Input '!AG42*B85</f>
         <v>1576.9006000000002</v>
       </c>
-      <c r="I89" s="58">
+      <c r="I89" s="40">
         <f>SQRT('Forces Input '!AH42^2+'Forces Input '!AI42^2)*B85</f>
         <v>2279.985165662938</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="41">
         <f t="shared" si="16"/>
         <v>0.57858864012982791</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="41">
         <f t="shared" si="17"/>
         <v>0.8258531115491714</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="41">
         <f t="shared" si="18"/>
         <v>5.2348567384331846</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="41">
         <f t="shared" si="19"/>
         <v>-0.26538233673169165</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N89" s="41">
         <f t="shared" si="20"/>
         <v>0.5537830879482899</v>
       </c>
-      <c r="O89" s="53">
+      <c r="O89" s="67">
         <f t="shared" si="21"/>
         <v>0.77420347701605707</v>
       </c>
@@ -11478,36 +11502,36 @@
       <c r="F90" s="18">
         <v>4</v>
       </c>
-      <c r="G90" s="54"/>
-      <c r="H90" s="58">
+      <c r="G90" s="56"/>
+      <c r="H90" s="40">
         <f>'Forces Input '!AG43*B85</f>
         <v>3750.1365000000005</v>
       </c>
-      <c r="I90" s="58">
+      <c r="I90" s="40">
         <f>SQRT('Forces Input '!AH43^2+'Forces Input '!AI43^2)*B85</f>
         <v>113.1626876466439</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="41">
         <f t="shared" si="16"/>
         <v>0.57269368844283153</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="41">
         <f t="shared" si="17"/>
         <v>0.81633201077776052</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="41">
         <f t="shared" si="18"/>
         <v>1.6217043917599612</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="41">
         <f t="shared" si="19"/>
         <v>11.161717772812588</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N90" s="41">
         <f t="shared" si="20"/>
         <v>0.57263181237065708</v>
       </c>
-      <c r="O90" s="53">
+      <c r="O90" s="67">
         <f t="shared" si="21"/>
         <v>0.81620124643532699</v>
       </c>
@@ -11516,36 +11540,36 @@
       <c r="F91" s="18">
         <v>5</v>
       </c>
-      <c r="G91" s="54"/>
-      <c r="H91" s="58">
+      <c r="G91" s="56"/>
+      <c r="H91" s="40">
         <f>'Forces Input '!AG44*B85</f>
         <v>1576.8962000000001</v>
       </c>
-      <c r="I91" s="58">
+      <c r="I91" s="40">
         <f>SQRT('Forces Input '!AH44^2+'Forces Input '!AI44^2)*B85</f>
         <v>2279.9691599742714</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="41">
         <f t="shared" si="16"/>
         <v>0.57858865210966437</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="41">
         <f t="shared" si="17"/>
         <v>0.82585313092693102</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="41">
         <f t="shared" si="18"/>
         <v>5.2348741355006947</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="41">
         <f t="shared" si="19"/>
         <v>-0.26537691440075029</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N91" s="41">
         <f t="shared" si="20"/>
         <v>0.55378343947924025</v>
       </c>
-      <c r="O91" s="53">
+      <c r="O91" s="67">
         <f t="shared" si="21"/>
         <v>0.77420418948282577</v>
       </c>
@@ -11554,36 +11578,36 @@
       <c r="F92" s="18">
         <v>6</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="58">
+      <c r="G92" s="56"/>
+      <c r="H92" s="40">
         <f>'Forces Input '!AG45*B85</f>
         <v>3750.1453000000001</v>
       </c>
-      <c r="I92" s="58">
+      <c r="I92" s="40">
         <f>SQRT('Forces Input '!AH45^2+'Forces Input '!AI45^2)*B85</f>
         <v>113.16203713693623</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="41">
         <f t="shared" si="16"/>
         <v>0.57269366466177107</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="41">
         <f t="shared" si="17"/>
         <v>0.81633197242537747</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="41">
         <f t="shared" si="18"/>
         <v>1.6216982397320261</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="41">
         <f t="shared" si="19"/>
         <v>11.161776997126802</v>
       </c>
-      <c r="N92" s="13">
+      <c r="N92" s="41">
         <f t="shared" si="20"/>
         <v>0.57263178930374181</v>
       </c>
-      <c r="O92" s="53">
+      <c r="O92" s="67">
         <f t="shared" si="21"/>
         <v>0.81620120959444353</v>
       </c>
@@ -11592,36 +11616,36 @@
       <c r="F93" s="18">
         <v>7</v>
       </c>
-      <c r="G93" s="54"/>
-      <c r="H93" s="58">
+      <c r="G93" s="56"/>
+      <c r="H93" s="40">
         <f>'Forces Input '!AG46*B85</f>
         <v>3750.1178</v>
       </c>
-      <c r="I93" s="58">
+      <c r="I93" s="40">
         <f>SQRT('Forces Input '!AH46^2+'Forces Input '!AI46^2)*B85</f>
         <v>113.18519330903509</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="41">
         <f t="shared" si="16"/>
         <v>0.57269373897758702</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K93" s="41">
         <f t="shared" si="17"/>
         <v>0.81633209227658021</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="41">
         <f t="shared" si="18"/>
         <v>1.6217174649151906</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="41">
         <f t="shared" si="19"/>
         <v>11.159322250994943</v>
       </c>
-      <c r="N93" s="13">
+      <c r="N93" s="41">
         <f t="shared" si="20"/>
         <v>0.57263183828677056</v>
       </c>
-      <c r="O93" s="53">
+      <c r="O93" s="67">
         <f t="shared" si="21"/>
         <v>0.81620127590446812</v>
       </c>
@@ -11630,36 +11654,36 @@
       <c r="F94" s="18">
         <v>8</v>
       </c>
-      <c r="G94" s="54"/>
-      <c r="H94" s="58">
+      <c r="G94" s="56"/>
+      <c r="H94" s="40">
         <f>'Forces Input '!AG47*B85</f>
         <v>1576.8742</v>
       </c>
-      <c r="I94" s="58">
+      <c r="I94" s="40">
         <f>SQRT('Forces Input '!AH47^2+'Forces Input '!AI47^2)*B85</f>
         <v>2279.9804317529806</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="41">
         <f t="shared" si="16"/>
         <v>0.57858871200884932</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K94" s="41">
         <f t="shared" si="17"/>
         <v>0.82585322781573689</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L94" s="41">
         <f t="shared" si="18"/>
         <v>5.2349611222945569</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="41">
         <f t="shared" si="19"/>
         <v>-0.26537922015750626</v>
       </c>
-      <c r="N94" s="13">
+      <c r="N94" s="41">
         <f t="shared" si="20"/>
         <v>0.55378325708353571</v>
       </c>
-      <c r="O94" s="53">
+      <c r="O94" s="67">
         <f t="shared" si="21"/>
         <v>0.77420378915640331</v>
       </c>
@@ -11668,36 +11692,36 @@
       <c r="F95" s="18">
         <v>9</v>
       </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="58">
+      <c r="G95" s="56"/>
+      <c r="H95" s="40">
         <f>'Forces Input '!AG48*B85</f>
         <v>3750.1288000000004</v>
       </c>
-      <c r="I95" s="58">
+      <c r="I95" s="40">
         <f>SQRT('Forces Input '!AH48^2+'Forces Input '!AI48^2)*B85</f>
         <v>113.18478053287258</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="41">
         <f t="shared" si="16"/>
         <v>0.57269370925125984</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K95" s="41">
         <f t="shared" si="17"/>
         <v>0.8163320443360973</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L95" s="41">
         <f t="shared" si="18"/>
         <v>1.6217097748080898</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="41">
         <f t="shared" si="19"/>
         <v>11.159353238942929</v>
       </c>
-      <c r="N95" s="13">
+      <c r="N95" s="41">
         <f t="shared" si="20"/>
         <v>0.5726318090154181</v>
       </c>
-      <c r="O95" s="53">
+      <c r="O95" s="67">
         <f t="shared" si="21"/>
         <v>0.81620122892838909</v>
       </c>
@@ -11706,36 +11730,36 @@
       <c r="F96" s="18">
         <v>10</v>
       </c>
-      <c r="G96" s="54"/>
-      <c r="H96" s="58">
+      <c r="G96" s="56"/>
+      <c r="H96" s="40">
         <f>'Forces Input '!AG49*B85</f>
         <v>1576.9270000000001</v>
       </c>
-      <c r="I96" s="58">
+      <c r="I96" s="40">
         <f>SQRT('Forces Input '!AH49^2+'Forces Input '!AI49^2)*B85</f>
         <v>2279.9903553288809</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="41">
         <f t="shared" si="16"/>
         <v>0.57858856825081317</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="41">
         <f t="shared" si="17"/>
         <v>0.82585299528262035</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="41">
         <f t="shared" si="18"/>
         <v>5.2347523580668813</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="41">
         <f t="shared" si="19"/>
         <v>-0.26538560013784451</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="41">
         <f t="shared" si="20"/>
         <v>0.55378290912841877</v>
       </c>
-      <c r="O96" s="53">
+      <c r="O96" s="67">
         <f t="shared" si="21"/>
         <v>0.77420314509438914</v>
       </c>
@@ -11744,36 +11768,36 @@
       <c r="F97" s="18">
         <v>11</v>
       </c>
-      <c r="G97" s="54"/>
-      <c r="H97" s="58">
+      <c r="G97" s="56"/>
+      <c r="H97" s="40">
         <f>'Forces Input '!AG50*B85</f>
         <v>1382.6879000000001</v>
       </c>
-      <c r="I97" s="58">
+      <c r="I97" s="40">
         <f>SQRT('Forces Input '!AH50^2+'Forces Input '!AI50^2)*B85</f>
         <v>738.05628421929669</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="41">
         <f t="shared" si="16"/>
         <v>0.57911759830682907</v>
       </c>
-      <c r="K97" s="13">
+      <c r="K97" s="41">
         <f t="shared" si="17"/>
         <v>0.82670883219210411</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="41">
         <f t="shared" si="18"/>
         <v>6.1106063282605794</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="41">
         <f t="shared" si="19"/>
         <v>1.3055257234208524</v>
       </c>
-      <c r="N97" s="13">
+      <c r="N97" s="41">
         <f t="shared" si="20"/>
         <v>0.5764597250300354</v>
       </c>
-      <c r="O97" s="53">
+      <c r="O97" s="67">
         <f t="shared" si="21"/>
         <v>0.82107610649747054</v>
       </c>
@@ -11782,76 +11806,76 @@
       <c r="F98" s="17">
         <v>12</v>
       </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="72">
+      <c r="G98" s="57"/>
+      <c r="H98" s="46">
         <f>'Forces Input '!AG51*B85</f>
         <v>1382.6868000000002</v>
       </c>
-      <c r="I98" s="72">
+      <c r="I98" s="46">
         <f>SQRT('Forces Input '!AH51^2+'Forces Input '!AI51^2)*B85</f>
         <v>738.05516230550904</v>
       </c>
-      <c r="J98" s="55">
+      <c r="J98" s="46">
         <f t="shared" si="16"/>
         <v>0.57911760130379553</v>
       </c>
-      <c r="K98" s="55">
+      <c r="K98" s="46">
         <f t="shared" si="17"/>
         <v>0.826708837041086</v>
       </c>
-      <c r="L98" s="55">
+      <c r="L98" s="46">
         <f t="shared" si="18"/>
         <v>6.1106119851215261</v>
       </c>
-      <c r="M98" s="55">
+      <c r="M98" s="46">
         <f t="shared" si="19"/>
         <v>1.3055294328624565</v>
       </c>
-      <c r="N98" s="55">
+      <c r="N98" s="46">
         <f t="shared" si="20"/>
         <v>0.57645973607192502</v>
       </c>
-      <c r="O98" s="56">
+      <c r="O98" s="72">
         <f t="shared" si="21"/>
         <v>0.82107612834712485</v>
       </c>
     </row>
     <row r="99" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F99" s="67">
+      <c r="F99" s="44">
         <v>1</v>
       </c>
-      <c r="G99" s="68" t="s">
+      <c r="G99" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H99" s="69">
+      <c r="H99" s="45">
         <f>'Forces Input '!R40*B85</f>
         <v>1382.6769000000002</v>
       </c>
-      <c r="I99" s="73">
+      <c r="I99" s="45">
         <f>SQRT('Forces Input '!S40^2+'Forces Input '!T40^2)*B85</f>
         <v>738.05084467349457</v>
       </c>
-      <c r="J99" s="70">
+      <c r="J99" s="73">
         <f t="shared" si="16"/>
         <v>0.57911762827649493</v>
       </c>
-      <c r="K99" s="70">
+      <c r="K99" s="73">
         <f t="shared" si="17"/>
         <v>0.82670888068192427</v>
       </c>
-      <c r="L99" s="70">
+      <c r="L99" s="73">
         <f t="shared" si="18"/>
         <v>6.110662897275084</v>
       </c>
-      <c r="M99" s="70">
+      <c r="M99" s="73">
         <f t="shared" si="19"/>
         <v>1.305544763744642</v>
       </c>
-      <c r="N99" s="70">
+      <c r="N99" s="73">
         <f>1/(SQRT(      (((I99*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H99*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.57645979392719315</v>
       </c>
-      <c r="O99" s="71">
+      <c r="O99" s="74">
         <f>1/(SQRT(      (((I99*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H99*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.82107623718364686</v>
       </c>
@@ -11860,36 +11884,36 @@
       <c r="F100" s="18">
         <v>2</v>
       </c>
-      <c r="G100" s="54"/>
-      <c r="H100" s="58">
+      <c r="G100" s="56"/>
+      <c r="H100" s="40">
         <f>'Forces Input '!R41*B85</f>
         <v>1382.6670000000001</v>
       </c>
-      <c r="I100" s="60">
+      <c r="I100" s="40">
         <f>SQRT('Forces Input '!S41^2+'Forces Input '!T41^2)*B85</f>
         <v>738.0560555426938</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="41">
         <f t="shared" si="16"/>
         <v>0.57911765524919523</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="41">
         <f t="shared" si="17"/>
         <v>0.82670892432276433</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="41">
         <f t="shared" si="18"/>
         <v>6.1107138101577103</v>
       </c>
-      <c r="M100" s="13">
+      <c r="M100" s="41">
         <f t="shared" si="19"/>
         <v>1.3055303294083074</v>
       </c>
-      <c r="N100" s="13">
+      <c r="N100" s="41">
         <f t="shared" ref="N100:N110" si="22">1/(SQRT(      (((I100*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H100*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.57645978332821479</v>
       </c>
-      <c r="O100" s="53">
+      <c r="O100" s="67">
         <f t="shared" ref="O100:O110" si="23">1/(SQRT(      (((I100*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H100*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.82107620125280834</v>
       </c>
@@ -11898,36 +11922,36 @@
       <c r="F101" s="18">
         <v>3</v>
       </c>
-      <c r="G101" s="54"/>
-      <c r="H101" s="58">
+      <c r="G101" s="56"/>
+      <c r="H101" s="40">
         <f>'Forces Input '!R42*B85</f>
         <v>3750.1134000000002</v>
       </c>
-      <c r="I101" s="60">
+      <c r="I101" s="40">
         <f>SQRT('Forces Input '!S42^2+'Forces Input '!T42^2)*B85</f>
         <v>113.18386116766003</v>
       </c>
-      <c r="J101" s="13">
+      <c r="J101" s="41">
         <f t="shared" si="16"/>
         <v>0.57269375086811825</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="41">
         <f t="shared" si="17"/>
         <v>0.81633211145277418</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="41">
         <f t="shared" si="18"/>
         <v>1.6217205409706628</v>
       </c>
-      <c r="M101" s="13">
+      <c r="M101" s="41">
         <f t="shared" si="19"/>
         <v>11.159470705216279</v>
       </c>
-      <c r="N101" s="13">
+      <c r="N101" s="41">
         <f t="shared" si="22"/>
         <v>0.57263185163289254</v>
       </c>
-      <c r="O101" s="53">
+      <c r="O101" s="67">
         <f t="shared" si="23"/>
         <v>0.81620129815547404</v>
       </c>
@@ -11936,36 +11960,36 @@
       <c r="F102" s="18">
         <v>4</v>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="58">
+      <c r="G102" s="56"/>
+      <c r="H102" s="40">
         <f>'Forces Input '!R43*B85</f>
         <v>1576.8687000000002</v>
       </c>
-      <c r="I102" s="60">
+      <c r="I102" s="40">
         <f>SQRT('Forces Input '!S43^2+'Forces Input '!T43^2)*B85</f>
         <v>2279.9820843370881</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="41">
         <f t="shared" si="16"/>
         <v>0.57858872698364627</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="41">
         <f t="shared" si="17"/>
         <v>0.82585325203794002</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="41">
         <f t="shared" si="18"/>
         <v>5.2349828693722769</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="41">
         <f t="shared" si="19"/>
         <v>-0.26537942110885859</v>
       </c>
-      <c r="N102" s="13">
+      <c r="N102" s="41">
         <f t="shared" si="22"/>
         <v>0.55378323624739578</v>
       </c>
-      <c r="O102" s="53">
+      <c r="O102" s="67">
         <f t="shared" si="23"/>
         <v>0.77420373965417077</v>
       </c>
@@ -11974,36 +11998,36 @@
       <c r="F103" s="18">
         <v>5</v>
       </c>
-      <c r="G103" s="54"/>
-      <c r="H103" s="58">
+      <c r="G103" s="56"/>
+      <c r="H103" s="40">
         <f>'Forces Input '!R44*B85</f>
         <v>3750.1277</v>
       </c>
-      <c r="I103" s="60">
+      <c r="I103" s="40">
         <f>SQRT('Forces Input '!S44^2+'Forces Input '!T44^2)*B85</f>
         <v>113.1833130967894</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="41">
         <f t="shared" si="16"/>
         <v>0.57269371222389265</v>
       </c>
-      <c r="K103" s="13">
+      <c r="K103" s="41">
         <f t="shared" si="17"/>
         <v>0.81633204913014534</v>
       </c>
-      <c r="L103" s="13">
+      <c r="L103" s="41">
         <f t="shared" si="18"/>
         <v>1.62171054381677</v>
       </c>
-      <c r="M103" s="13">
+      <c r="M103" s="41">
         <f t="shared" si="19"/>
         <v>11.159512222141311</v>
       </c>
-      <c r="N103" s="13">
+      <c r="N103" s="41">
         <f t="shared" si="22"/>
         <v>0.57263181359266269</v>
       </c>
-      <c r="O103" s="53">
+      <c r="O103" s="67">
         <f t="shared" si="23"/>
         <v>0.81620123711304604</v>
       </c>
@@ -12012,36 +12036,36 @@
       <c r="F104" s="18">
         <v>6</v>
       </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="58">
+      <c r="G104" s="56"/>
+      <c r="H104" s="40">
         <f>'Forces Input '!R45*B85</f>
         <v>1576.9204000000002</v>
       </c>
-      <c r="I104" s="60">
+      <c r="I104" s="40">
         <f>SQRT('Forces Input '!S45^2+'Forces Input '!T45^2)*B85</f>
         <v>2279.9879031529617</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="41">
         <f t="shared" si="16"/>
         <v>0.57858858622056641</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="41">
         <f t="shared" si="17"/>
         <v>0.82585302434925634</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="41">
         <f t="shared" si="18"/>
         <v>5.2347784528308035</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="41">
         <f t="shared" si="19"/>
         <v>-0.26538441222263276</v>
       </c>
-      <c r="N104" s="13">
+      <c r="N104" s="41">
         <f t="shared" si="22"/>
         <v>0.55378297837115031</v>
       </c>
-      <c r="O104" s="53">
+      <c r="O104" s="67">
         <f t="shared" si="23"/>
         <v>0.77420327819451829</v>
       </c>
@@ -12050,36 +12074,36 @@
       <c r="F105" s="18">
         <v>7</v>
       </c>
-      <c r="G105" s="54"/>
-      <c r="H105" s="58">
+      <c r="G105" s="56"/>
+      <c r="H105" s="40">
         <f>'Forces Input '!R46*B85</f>
         <v>1576.8995000000002</v>
       </c>
-      <c r="I105" s="60">
+      <c r="I105" s="40">
         <f>SQRT('Forces Input '!S46^2+'Forces Input '!T46^2)*B85</f>
         <v>2279.9849191600892</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="41">
         <f t="shared" si="16"/>
         <v>0.57858864312478686</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="41">
         <f t="shared" si="17"/>
         <v>0.82585311639361114</v>
       </c>
-      <c r="L105" s="13">
+      <c r="L105" s="41">
         <f t="shared" si="18"/>
         <v>5.2348610876909598</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="41">
         <f t="shared" si="19"/>
         <v>-0.2653821910040719</v>
       </c>
-      <c r="N105" s="13">
+      <c r="N105" s="41">
         <f t="shared" si="22"/>
         <v>0.55378309604225828</v>
       </c>
-      <c r="O105" s="53">
+      <c r="O105" s="67">
         <f t="shared" si="23"/>
         <v>0.77420349215977713</v>
       </c>
@@ -12088,36 +12112,36 @@
       <c r="F106" s="18">
         <v>8</v>
       </c>
-      <c r="G106" s="54"/>
-      <c r="H106" s="58">
+      <c r="G106" s="56"/>
+      <c r="H106" s="40">
         <f>'Forces Input '!R47*B85</f>
         <v>3750.1343000000006</v>
       </c>
-      <c r="I106" s="60">
+      <c r="I106" s="40">
         <f>SQRT('Forces Input '!S47^2+'Forces Input '!T47^2)*B85</f>
         <v>113.17364539931683</v>
       </c>
-      <c r="J106" s="13">
+      <c r="J106" s="41">
         <f t="shared" si="16"/>
         <v>0.5726936943880967</v>
       </c>
-      <c r="K106" s="13">
+      <c r="K106" s="41">
         <f t="shared" si="17"/>
         <v>0.81633202036585684</v>
       </c>
-      <c r="L106" s="13">
+      <c r="L106" s="41">
         <f t="shared" si="18"/>
         <v>1.6217059297714567</v>
       </c>
-      <c r="M106" s="13">
+      <c r="M106" s="41">
         <f t="shared" si="19"/>
         <v>11.160542916669126</v>
       </c>
-      <c r="N106" s="13">
+      <c r="N106" s="41">
         <f t="shared" si="22"/>
         <v>0.57263180633219801</v>
       </c>
-      <c r="O106" s="53">
+      <c r="O106" s="67">
         <f t="shared" si="23"/>
         <v>0.81620123069855399</v>
       </c>
@@ -12126,36 +12150,36 @@
       <c r="F107" s="18">
         <v>9</v>
       </c>
-      <c r="G107" s="54"/>
-      <c r="H107" s="58">
+      <c r="G107" s="56"/>
+      <c r="H107" s="40">
         <f>'Forces Input '!R48*B85</f>
         <v>1576.894</v>
       </c>
-      <c r="I107" s="60">
+      <c r="I107" s="40">
         <f>SQRT('Forces Input '!S48^2+'Forces Input '!T48^2)*B85</f>
         <v>2279.9757556607378</v>
       </c>
-      <c r="J107" s="13">
+      <c r="J107" s="41">
         <f t="shared" si="16"/>
         <v>0.57858865809958271</v>
       </c>
-      <c r="K107" s="13">
+      <c r="K107" s="41">
         <f t="shared" si="17"/>
         <v>0.82585314061581117</v>
       </c>
-      <c r="L107" s="13">
+      <c r="L107" s="41">
         <f t="shared" si="18"/>
         <v>5.2348828340708584</v>
       </c>
-      <c r="M107" s="13">
+      <c r="M107" s="41">
         <f t="shared" si="19"/>
         <v>-0.26537890696609878</v>
       </c>
-      <c r="N107" s="13">
+      <c r="N107" s="41">
         <f t="shared" si="22"/>
         <v>0.55378330503883588</v>
       </c>
-      <c r="O107" s="53">
+      <c r="O107" s="67">
         <f t="shared" si="23"/>
         <v>0.77420391210352113</v>
       </c>
@@ -12164,36 +12188,36 @@
       <c r="F108" s="18">
         <v>10</v>
       </c>
-      <c r="G108" s="54"/>
-      <c r="H108" s="58">
+      <c r="G108" s="56"/>
+      <c r="H108" s="40">
         <f>'Forces Input '!R49*B85</f>
         <v>3750.1453000000001</v>
       </c>
-      <c r="I108" s="60">
+      <c r="I108" s="40">
         <f>SQRT('Forces Input '!S49^2+'Forces Input '!T49^2)*B85</f>
         <v>113.17316384382498</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="41">
         <f t="shared" si="16"/>
         <v>0.57269366466177107</v>
       </c>
-      <c r="K108" s="13">
+      <c r="K108" s="41">
         <f t="shared" si="17"/>
         <v>0.81633197242537747</v>
       </c>
-      <c r="L108" s="13">
+      <c r="L108" s="41">
         <f t="shared" si="18"/>
         <v>1.6216982397320261</v>
       </c>
-      <c r="M108" s="13">
+      <c r="M108" s="41">
         <f t="shared" si="19"/>
         <v>11.160581302641491</v>
       </c>
-      <c r="N108" s="13">
+      <c r="N108" s="41">
         <f t="shared" si="22"/>
         <v>0.57263177713601876</v>
       </c>
-      <c r="O108" s="53">
+      <c r="O108" s="67">
         <f t="shared" si="23"/>
         <v>0.81620118388133145</v>
       </c>
@@ -12202,36 +12226,36 @@
       <c r="F109" s="18">
         <v>11</v>
       </c>
-      <c r="G109" s="54"/>
-      <c r="H109" s="58">
+      <c r="G109" s="56"/>
+      <c r="H109" s="40">
         <f>'Forces Input '!R50*B85</f>
         <v>1382.6802</v>
       </c>
-      <c r="I109" s="60">
+      <c r="I109" s="40">
         <f>SQRT('Forces Input '!S50^2+'Forces Input '!T50^2)*B85</f>
         <v>738.06036692463829</v>
       </c>
-      <c r="J109" s="13">
+      <c r="J109" s="41">
         <f t="shared" si="16"/>
         <v>0.57911761928559491</v>
       </c>
-      <c r="K109" s="13">
+      <c r="K109" s="41">
         <f t="shared" si="17"/>
         <v>0.82670886613497796</v>
       </c>
-      <c r="L109" s="13">
+      <c r="L109" s="41">
         <f t="shared" si="18"/>
         <v>6.1106459264762245</v>
       </c>
-      <c r="M109" s="13">
+      <c r="M109" s="41">
         <f t="shared" si="19"/>
         <v>1.3055144037747088</v>
       </c>
-      <c r="N109" s="13">
+      <c r="N109" s="41">
         <f t="shared" si="22"/>
         <v>0.57645971657205419</v>
       </c>
-      <c r="O109" s="53">
+      <c r="O109" s="67">
         <f t="shared" si="23"/>
         <v>0.82107607809799821</v>
       </c>
@@ -12240,76 +12264,76 @@
       <c r="F110" s="17">
         <v>12</v>
       </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="72">
+      <c r="G110" s="57"/>
+      <c r="H110" s="46">
         <f>'Forces Input '!R51*B85</f>
         <v>1382.6912</v>
       </c>
-      <c r="I110" s="62">
+      <c r="I110" s="46">
         <f>SQRT('Forces Input '!S51^2+'Forces Input '!T51^2)*B85</f>
         <v>738.05477238482456</v>
       </c>
-      <c r="J110" s="55">
+      <c r="J110" s="46">
         <f t="shared" si="16"/>
         <v>0.57911758931592927</v>
       </c>
-      <c r="K110" s="55">
+      <c r="K110" s="46">
         <f t="shared" si="17"/>
         <v>0.82670881764515869</v>
       </c>
-      <c r="L110" s="55">
+      <c r="L110" s="46">
         <f t="shared" si="18"/>
         <v>6.1105893577317429</v>
       </c>
-      <c r="M110" s="55">
+      <c r="M110" s="46">
         <f t="shared" si="19"/>
         <v>1.3055298315969561</v>
       </c>
-      <c r="N110" s="55">
+      <c r="N110" s="46">
         <f t="shared" si="22"/>
         <v>0.57645972694574632</v>
       </c>
-      <c r="O110" s="56">
+      <c r="O110" s="72">
         <f t="shared" si="23"/>
         <v>0.82107611505418077</v>
       </c>
     </row>
     <row r="111" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F111" s="67">
+      <c r="F111" s="44">
         <v>1</v>
       </c>
-      <c r="G111" s="68" t="s">
+      <c r="G111" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H111" s="73">
+      <c r="H111" s="45">
         <f>'Forces Input '!C40*B85</f>
         <v>172.34448</v>
       </c>
-      <c r="I111" s="73">
+      <c r="I111" s="45">
         <f>SQRT('Forces Input '!D40^2+'Forces Input '!E40^2)*B85</f>
         <v>12.194062882560166</v>
       </c>
-      <c r="J111" s="70">
+      <c r="J111" s="73">
         <f t="shared" si="16"/>
         <v>0.58242209779146248</v>
       </c>
-      <c r="K111" s="70">
+      <c r="K111" s="73">
         <f t="shared" si="17"/>
         <v>0.83205985520530334</v>
       </c>
-      <c r="L111" s="70">
+      <c r="L111" s="73">
         <f t="shared" si="18"/>
         <v>56.047079963044553</v>
       </c>
-      <c r="M111" s="70">
+      <c r="M111" s="73">
         <f t="shared" si="19"/>
         <v>152.18467140431815</v>
       </c>
-      <c r="N111" s="70">
+      <c r="N111" s="73">
         <f>1/(SQRT(      (((I111*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H111*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.58242136585563498</v>
       </c>
-      <c r="O111" s="71">
+      <c r="O111" s="74">
         <f>1/(SQRT(      (((I111*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H111*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.83205829687577704</v>
       </c>
@@ -12318,36 +12342,36 @@
       <c r="F112" s="18">
         <v>2</v>
       </c>
-      <c r="G112" s="54"/>
-      <c r="H112" s="60">
+      <c r="G112" s="56"/>
+      <c r="H112" s="40">
         <f>'Forces Input '!C41*B85</f>
         <v>172.31896000000003</v>
       </c>
-      <c r="I112" s="60">
+      <c r="I112" s="40">
         <f>SQRT('Forces Input '!D41^2+'Forces Input '!E41^2)*B85</f>
         <v>12.199738613067023</v>
       </c>
-      <c r="J112" s="13">
+      <c r="J112" s="41">
         <f t="shared" si="16"/>
         <v>0.58242216761239263</v>
       </c>
-      <c r="K112" s="13">
+      <c r="K112" s="41">
         <f t="shared" si="17"/>
         <v>0.83205996836173202</v>
       </c>
-      <c r="L112" s="13">
+      <c r="L112" s="41">
         <f t="shared" si="18"/>
         <v>56.055528490592849</v>
       </c>
-      <c r="M112" s="13">
+      <c r="M112" s="41">
         <f t="shared" si="19"/>
         <v>152.11369220033734</v>
       </c>
-      <c r="N112" s="13">
+      <c r="N112" s="41">
         <f t="shared" ref="N112:N122" si="24">1/(SQRT(      (((I112*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H112*$D$4))/($D$2*$B$4*1000000))^2)     )    )-1</f>
         <v>0.5824214349949508</v>
       </c>
-      <c r="O112" s="53">
+      <c r="O112" s="67">
         <f t="shared" ref="O112:O122" si="25">1/(SQRT(      (((I112*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H112*$D$5))/($D$2*$B$5*1000000))^2)     )    )-1</f>
         <v>0.83205840858093083</v>
       </c>
@@ -12356,36 +12380,36 @@
       <c r="F113" s="18">
         <v>3</v>
       </c>
-      <c r="G113" s="54"/>
-      <c r="H113" s="60">
+      <c r="G113" s="56"/>
+      <c r="H113" s="40">
         <f>'Forces Input '!C42*B85</f>
         <v>366.33311000000003</v>
       </c>
-      <c r="I113" s="60">
+      <c r="I113" s="40">
         <f>SQRT('Forces Input '!D42^2+'Forces Input '!E42^2)*B85</f>
         <v>79.601685670910058</v>
       </c>
-      <c r="J113" s="13">
+      <c r="J113" s="41">
         <f t="shared" si="16"/>
         <v>0.58189153647775416</v>
       </c>
-      <c r="K113" s="13">
+      <c r="K113" s="41">
         <f t="shared" si="17"/>
         <v>0.83120010763374585</v>
       </c>
-      <c r="L113" s="13">
+      <c r="L113" s="41">
         <f t="shared" si="18"/>
         <v>25.838276594079449</v>
       </c>
-      <c r="M113" s="13">
+      <c r="M113" s="41">
         <f t="shared" si="19"/>
         <v>22.131217887351497</v>
       </c>
-      <c r="N113" s="13">
+      <c r="N113" s="41">
         <f t="shared" si="24"/>
         <v>0.58186037835853011</v>
       </c>
-      <c r="O113" s="53">
+      <c r="O113" s="67">
         <f t="shared" si="25"/>
         <v>0.83113379864982795</v>
       </c>
@@ -12394,36 +12418,36 @@
       <c r="F114" s="18">
         <v>4</v>
       </c>
-      <c r="G114" s="54"/>
-      <c r="H114" s="60">
+      <c r="G114" s="56"/>
+      <c r="H114" s="40">
         <f>'Forces Input '!C43*B85</f>
         <v>366.28636</v>
       </c>
-      <c r="I114" s="60">
+      <c r="I114" s="40">
         <f>SQRT('Forces Input '!D43^2+'Forces Input '!E43^2)*B85</f>
         <v>79.588095321918274</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="41">
         <f t="shared" si="16"/>
         <v>0.58189166429672512</v>
       </c>
-      <c r="K114" s="13">
+      <c r="K114" s="41">
         <f t="shared" si="17"/>
         <v>0.83120031473011902</v>
       </c>
-      <c r="L114" s="13">
+      <c r="L114" s="41">
         <f t="shared" si="18"/>
         <v>25.841702027204434</v>
       </c>
-      <c r="M114" s="13">
+      <c r="M114" s="41">
         <f t="shared" si="19"/>
         <v>22.135248466398661</v>
       </c>
-      <c r="N114" s="13">
+      <c r="N114" s="41">
         <f t="shared" si="24"/>
         <v>0.58186051680794315</v>
       </c>
-      <c r="O114" s="53">
+      <c r="O114" s="67">
         <f t="shared" si="25"/>
         <v>0.83113402836233763</v>
       </c>
@@ -12432,36 +12456,36 @@
       <c r="F115" s="18">
         <v>5</v>
       </c>
-      <c r="G115" s="54"/>
-      <c r="H115" s="60">
+      <c r="G115" s="56"/>
+      <c r="H115" s="40">
         <f>'Forces Input '!C44*B85</f>
         <v>366.31979999999999</v>
       </c>
-      <c r="I115" s="60">
+      <c r="I115" s="40">
         <f>SQRT('Forces Input '!D44^2+'Forces Input '!E44^2)*B85</f>
         <v>79.589223382248619</v>
       </c>
-      <c r="J115" s="13">
+      <c r="J115" s="41">
         <f t="shared" si="16"/>
         <v>0.58189157286856519</v>
       </c>
-      <c r="K115" s="13">
+      <c r="K115" s="41">
         <f t="shared" si="17"/>
         <v>0.83120016659529661</v>
       </c>
-      <c r="L115" s="13">
+      <c r="L115" s="41">
         <f t="shared" si="18"/>
         <v>25.839251746013545</v>
       </c>
-      <c r="M115" s="13">
+      <c r="M115" s="41">
         <f t="shared" si="19"/>
         <v>22.134862816606493</v>
       </c>
-      <c r="N115" s="13">
+      <c r="N115" s="41">
         <f t="shared" si="24"/>
         <v>0.58186042450225139</v>
       </c>
-      <c r="O115" s="53">
+      <c r="O115" s="67">
         <f t="shared" si="25"/>
         <v>0.83113387836464048</v>
       </c>
@@ -12470,36 +12494,36 @@
       <c r="F116" s="18">
         <v>6</v>
       </c>
-      <c r="G116" s="54"/>
-      <c r="H116" s="60">
+      <c r="G116" s="56"/>
+      <c r="H116" s="40">
         <f>'Forces Input '!C45*B85</f>
         <v>366.30264000000005</v>
       </c>
-      <c r="I116" s="60">
+      <c r="I116" s="40">
         <f>SQRT('Forces Input '!D45^2+'Forces Input '!E45^2)*B85</f>
         <v>79.600845883146178</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="41">
         <f t="shared" si="16"/>
         <v>0.58189161978564585</v>
       </c>
-      <c r="K116" s="13">
+      <c r="K116" s="41">
         <f t="shared" si="17"/>
         <v>0.83120024261184722</v>
       </c>
-      <c r="L116" s="13">
+      <c r="L116" s="41">
         <f t="shared" si="18"/>
         <v>25.840509071267764</v>
       </c>
-      <c r="M116" s="13">
+      <c r="M116" s="41">
         <f t="shared" si="19"/>
         <v>22.131514526941878</v>
       </c>
-      <c r="N116" s="13">
+      <c r="N116" s="41">
         <f t="shared" si="24"/>
         <v>0.58186046231890454</v>
       </c>
-      <c r="O116" s="53">
+      <c r="O116" s="67">
         <f t="shared" si="25"/>
         <v>0.83113393501228661</v>
       </c>
@@ -12508,36 +12532,36 @@
       <c r="F117" s="18">
         <v>7</v>
       </c>
-      <c r="G117" s="54"/>
-      <c r="H117" s="60">
+      <c r="G117" s="56"/>
+      <c r="H117" s="40">
         <f>'Forces Input '!C46*B85</f>
         <v>366.33157000000006</v>
       </c>
-      <c r="I117" s="60">
+      <c r="I117" s="40">
         <f>SQRT('Forces Input '!D46^2+'Forces Input '!E46^2)*B85</f>
         <v>79.602648350189213</v>
       </c>
-      <c r="J117" s="13">
+      <c r="J117" s="41">
         <f t="shared" si="16"/>
         <v>0.58189154068826099</v>
       </c>
-      <c r="K117" s="13">
+      <c r="K117" s="41">
         <f t="shared" si="17"/>
         <v>0.83120011445574327</v>
       </c>
-      <c r="L117" s="13">
+      <c r="L117" s="41">
         <f t="shared" si="18"/>
         <v>25.838389417950875</v>
       </c>
-      <c r="M117" s="13">
+      <c r="M117" s="41">
         <f t="shared" si="19"/>
         <v>22.130940807321885</v>
       </c>
-      <c r="N117" s="13">
+      <c r="N117" s="41">
         <f t="shared" si="24"/>
         <v>0.58186038181517197</v>
       </c>
-      <c r="O117" s="53">
+      <c r="O117" s="67">
         <f t="shared" si="25"/>
         <v>0.83113380386731928</v>
       </c>
@@ -12546,36 +12570,36 @@
       <c r="F118" s="18">
         <v>8</v>
       </c>
-      <c r="G118" s="54"/>
-      <c r="H118" s="60">
+      <c r="G118" s="56"/>
+      <c r="H118" s="40">
         <f>'Forces Input '!C47*B85</f>
         <v>366.28504000000004</v>
       </c>
-      <c r="I118" s="60">
+      <c r="I118" s="40">
         <f>SQRT('Forces Input '!D47^2+'Forces Input '!E47^2)*B85</f>
         <v>79.589490051483878</v>
       </c>
-      <c r="J118" s="13">
+      <c r="J118" s="41">
         <f t="shared" si="16"/>
         <v>0.58189166790573177</v>
       </c>
-      <c r="K118" s="13">
+      <c r="K118" s="41">
         <f t="shared" si="17"/>
         <v>0.83120032057754667</v>
       </c>
-      <c r="L118" s="13">
+      <c r="L118" s="41">
         <f t="shared" si="18"/>
         <v>25.841798758009151</v>
       </c>
-      <c r="M118" s="13">
+      <c r="M118" s="41">
         <f t="shared" si="19"/>
         <v>22.134845322600295</v>
       </c>
-      <c r="N118" s="13">
+      <c r="N118" s="41">
         <f t="shared" si="24"/>
         <v>0.58186051932508032</v>
       </c>
-      <c r="O118" s="53">
+      <c r="O118" s="67">
         <f t="shared" si="25"/>
         <v>0.83113403188598545</v>
       </c>
@@ -12584,36 +12608,36 @@
       <c r="F119" s="18">
         <v>9</v>
       </c>
-      <c r="G119" s="54"/>
-      <c r="H119" s="60">
+      <c r="G119" s="56"/>
+      <c r="H119" s="40">
         <f>'Forces Input '!C48*B85</f>
         <v>366.31506999999999</v>
       </c>
-      <c r="I119" s="60">
+      <c r="I119" s="40">
         <f>SQRT('Forces Input '!D48^2+'Forces Input '!E48^2)*B85</f>
         <v>79.588595717575799</v>
       </c>
-      <c r="J119" s="13">
+      <c r="J119" s="41">
         <f t="shared" si="16"/>
         <v>0.58189158580083689</v>
       </c>
-      <c r="K119" s="13">
+      <c r="K119" s="41">
         <f t="shared" si="17"/>
         <v>0.83120018754857594</v>
       </c>
-      <c r="L119" s="13">
+      <c r="L119" s="41">
         <f t="shared" si="18"/>
         <v>25.839598304676169</v>
       </c>
-      <c r="M119" s="13">
+      <c r="M119" s="41">
         <f t="shared" si="19"/>
         <v>22.135053434032347</v>
       </c>
-      <c r="N119" s="13">
+      <c r="N119" s="41">
         <f t="shared" si="24"/>
         <v>0.58186043792503361</v>
       </c>
-      <c r="O119" s="53">
+      <c r="O119" s="67">
         <f t="shared" si="25"/>
         <v>0.83113390036112178</v>
       </c>
@@ -12622,36 +12646,36 @@
       <c r="F120" s="18">
         <v>10</v>
       </c>
-      <c r="G120" s="54"/>
-      <c r="H120" s="60">
+      <c r="G120" s="56"/>
+      <c r="H120" s="40">
         <f>'Forces Input '!C49*B85</f>
         <v>366.29868000000005</v>
       </c>
-      <c r="I120" s="60">
+      <c r="I120" s="40">
         <f>SQRT('Forces Input '!D49^2+'Forces Input '!E49^2)*B85</f>
         <v>79.601050225847601</v>
       </c>
-      <c r="J120" s="13">
+      <c r="J120" s="41">
         <f t="shared" si="16"/>
         <v>0.58189163061266491</v>
       </c>
-      <c r="K120" s="13">
+      <c r="K120" s="41">
         <f t="shared" si="17"/>
         <v>0.83120026015412884</v>
       </c>
-      <c r="L120" s="13">
+      <c r="L120" s="41">
         <f t="shared" si="18"/>
         <v>25.840799239979052</v>
       </c>
-      <c r="M120" s="13">
+      <c r="M120" s="41">
         <f t="shared" si="19"/>
         <v>22.131461983175033</v>
       </c>
-      <c r="N120" s="13">
+      <c r="N120" s="41">
         <f t="shared" si="24"/>
         <v>0.58186047298532051</v>
       </c>
-      <c r="O120" s="53">
+      <c r="O120" s="67">
         <f t="shared" si="25"/>
         <v>0.8311339522122454</v>
       </c>
@@ -12660,36 +12684,36 @@
       <c r="F121" s="18">
         <v>11</v>
       </c>
-      <c r="G121" s="54"/>
-      <c r="H121" s="60">
+      <c r="G121" s="56"/>
+      <c r="H121" s="40">
         <f>'Forces Input '!C50*B85</f>
         <v>172.33073000000002</v>
       </c>
-      <c r="I121" s="60">
+      <c r="I121" s="40">
         <f>SQRT('Forces Input '!D50^2+'Forces Input '!E50^2)*B85</f>
         <v>12.196972706089994</v>
       </c>
-      <c r="J121" s="13">
+      <c r="J121" s="41">
         <f t="shared" si="16"/>
         <v>0.58242213541049748</v>
       </c>
-      <c r="K121" s="13">
+      <c r="K121" s="41">
         <f t="shared" si="17"/>
         <v>0.83205991617320496</v>
       </c>
-      <c r="L121" s="13">
+      <c r="L121" s="41">
         <f t="shared" si="18"/>
         <v>56.051631660524691</v>
       </c>
-      <c r="M121" s="13">
+      <c r="M121" s="41">
         <f t="shared" si="19"/>
         <v>152.14828116806038</v>
       </c>
-      <c r="N121" s="13">
+      <c r="N121" s="41">
         <f t="shared" si="24"/>
         <v>0.58242140312525814</v>
       </c>
-      <c r="O121" s="53">
+      <c r="O121" s="67">
         <f t="shared" si="25"/>
         <v>0.83205835709971843</v>
       </c>
@@ -12698,48 +12722,42 @@
       <c r="F122" s="17">
         <v>12</v>
       </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="62">
+      <c r="G122" s="57"/>
+      <c r="H122" s="46">
         <f>'Forces Input '!C51*B85</f>
         <v>172.33348000000001</v>
       </c>
-      <c r="I122" s="62">
+      <c r="I122" s="46">
         <f>SQRT('Forces Input '!D51^2+'Forces Input '!E51^2)*B85</f>
         <v>12.196118084716046</v>
       </c>
-      <c r="J122" s="55">
+      <c r="J122" s="46">
         <f t="shared" si="16"/>
         <v>0.58242212788669057</v>
       </c>
-      <c r="K122" s="55">
+      <c r="K122" s="46">
         <f t="shared" si="17"/>
         <v>0.83205990397962437</v>
       </c>
-      <c r="L122" s="55">
+      <c r="L122" s="46">
         <f t="shared" si="18"/>
         <v>56.050721262921932</v>
       </c>
-      <c r="M122" s="55">
+      <c r="M122" s="46">
         <f t="shared" si="19"/>
         <v>152.15898177500696</v>
       </c>
-      <c r="N122" s="55">
+      <c r="N122" s="46">
         <f t="shared" si="24"/>
         <v>0.5824213957040778</v>
       </c>
-      <c r="O122" s="56">
+      <c r="O122" s="72">
         <f t="shared" si="25"/>
         <v>0.83205834512464416</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G27:G38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="G3:G14"/>
-    <mergeCell ref="G15:G26"/>
     <mergeCell ref="G111:G122"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="N43:O43"/>
@@ -12750,6 +12768,12 @@
     <mergeCell ref="N85:O85"/>
     <mergeCell ref="G87:G98"/>
     <mergeCell ref="G99:G110"/>
+    <mergeCell ref="G27:G38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="G15:G26"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 L3 N3:N38">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
